--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
   <si>
     <t>Doi</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%1,  Huangqi%Zhang%NULL%2,  Huangqi%Zhang%NULL%0,  Jicheng%Xie%NULL%2,  Jicheng%Xie%NULL%0,  Minjie%Lin%NULL%2,  Minjie%Lin%NULL%0,  Lingjun%Ying%NULL%2,  Lingjun%Ying%NULL%0,  Peipei%Pang%NULL%2,  Peipei%Pang%NULL%0,  Wenbin%Ji%1224190004@qq.com%2,  Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given the ongoing SARS-CoV-2 pandemic, identification of immunogenic targets against the coronavirus spike glycoprotein will provide crucial advances towards the development of sensitive diagnostic tools and potential vaccine candidate targets.
+ In this study, using pools of overlapping linear B-cell peptides, we report two IgG immunodominant regions on SARS-CoV-2 spike glycoprotein that are recognised by sera from COVID-19 convalescent patients.
+ Notably, one is specific to SARS-CoV-2, which is located in close proximity to the receptor binding domain.
+ The other region, which is localised at the fusion peptide, could potentially function as a pan-SARS target.
+ Functionally, antibody depletion assays demonstrate that antibodies targeting these immunodominant regions significantly alter virus neutralisation capacities.
+ Taken together, identification and validation of these neutralising B-cell epitopes will provide insights towards the design of diagnostics and vaccine candidates against this high priority coronavirus.
+</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,   Guillaume%Carissimo%NULL%1,   Bei%Wang%NULL%2,   Bei%Wang%NULL%0,   Siti Naqiah%Amrun%NULL%1,   Cheryl Yi-Pin%Lee%NULL%1,   Rhonda Sin-Ling%Chee%NULL%1,   Siew-Wai%Fong%NULL%1,   Nicholas Kim-Wah%Yeo%NULL%1,   Wen-Hsin%Lee%NULL%1,   Anthony%Torres-Ruesta%NULL%1,   Yee-Sin%Leo%NULL%2,   Yee-Sin%Leo%NULL%0,   Mark I-Cheng%Chen%NULL%1,   Seow-Yen%Tan%NULL%1,   Louis Yi Ann%Chai%NULL%1,   Shirin%Kalimuddin%NULL%1,   Shirley Seah Gek%Kheng%NULL%1,   Siew-Yee%Thien%NULL%1,   Barnaby Edward%Young%NULL%1,   David C.%Lye%NULL%1,   Brendon John%Hanson%NULL%1,   Cheng-I%Wang%NULL%1,   Laurent%Renia%NULL%1,   Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,   Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
   </si>
 </sst>
 </file>
@@ -764,10 +776,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="77">
   <si>
     <t>Doi</t>
   </si>
@@ -298,18 +298,6 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%1,  Huangqi%Zhang%NULL%2,  Huangqi%Zhang%NULL%0,  Jicheng%Xie%NULL%2,  Jicheng%Xie%NULL%0,  Minjie%Lin%NULL%2,  Minjie%Lin%NULL%0,  Lingjun%Ying%NULL%2,  Lingjun%Ying%NULL%0,  Peipei%Pang%NULL%2,  Peipei%Pang%NULL%0,  Wenbin%Ji%1224190004@qq.com%2,  Wenbin%Ji%1224190004@qq.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given the ongoing SARS-CoV-2 pandemic, identification of immunogenic targets against the coronavirus spike glycoprotein will provide crucial advances towards the development of sensitive diagnostic tools and potential vaccine candidate targets.
- In this study, using pools of overlapping linear B-cell peptides, we report two IgG immunodominant regions on SARS-CoV-2 spike glycoprotein that are recognised by sera from COVID-19 convalescent patients.
- Notably, one is specific to SARS-CoV-2, which is located in close proximity to the receptor binding domain.
- The other region, which is localised at the fusion peptide, could potentially function as a pan-SARS target.
- Functionally, antibody depletion assays demonstrate that antibodies targeting these immunodominant regions significantly alter virus neutralisation capacities.
- Taken together, identification and validation of these neutralising B-cell epitopes will provide insights towards the design of diagnostics and vaccine candidates against this high priority coronavirus.
-</t>
-  </si>
-  <si>
-    <t>[Chek Meng%Poh%NULL%1,   Guillaume%Carissimo%NULL%1,   Bei%Wang%NULL%2,   Bei%Wang%NULL%0,   Siti Naqiah%Amrun%NULL%1,   Cheryl Yi-Pin%Lee%NULL%1,   Rhonda Sin-Ling%Chee%NULL%1,   Siew-Wai%Fong%NULL%1,   Nicholas Kim-Wah%Yeo%NULL%1,   Wen-Hsin%Lee%NULL%1,   Anthony%Torres-Ruesta%NULL%1,   Yee-Sin%Leo%NULL%2,   Yee-Sin%Leo%NULL%0,   Mark I-Cheng%Chen%NULL%1,   Seow-Yen%Tan%NULL%1,   Louis Yi Ann%Chai%NULL%1,   Shirin%Kalimuddin%NULL%1,   Shirley Seah Gek%Kheng%NULL%1,   Siew-Yee%Thien%NULL%1,   Barnaby Edward%Young%NULL%1,   David C.%Lye%NULL%1,   Brendon John%Hanson%NULL%1,   Cheng-I%Wang%NULL%1,   Laurent%Renia%NULL%1,   Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,   Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
   </si>
 </sst>
 </file>
@@ -776,10 +764,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="91">
   <si>
     <t>Doi</t>
   </si>
@@ -298,6 +298,48 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%1,  Huangqi%Zhang%NULL%2,  Huangqi%Zhang%NULL%0,  Jicheng%Xie%NULL%2,  Jicheng%Xie%NULL%0,  Minjie%Lin%NULL%2,  Minjie%Lin%NULL%0,  Lingjun%Ying%NULL%2,  Lingjun%Ying%NULL%0,  Peipei%Pang%NULL%2,  Peipei%Pang%NULL%0,  Wenbin%Ji%1224190004@qq.com%2,  Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,   Zhenyu%Pan%NULL%2,   Yunbao%Pan%NULL%2,   Qiaoling%Deng%NULL%2,   Liangjun%Chen%NULL%2,   Jin%Li%NULL%2,   Yirong%Li%NULL%3,   Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%2,    W.% Jiang%null%1,    Q.% He%null%1,    C.% Wang%null%2,    B.% Wang%null%2,    P.% Zhou%null%1,    N.% Dong%null%1,    Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,   Pingzheng%Mo%NULL%0,   Yu%Xiao%NULL%4,   Oiu%Zhao%NULL%1,   Yongxi%Zhang%NULL%0,   Fan%Wang%NULL%4]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,   Owen Tak-Yin%Tsang%NULL%1,   Wai-Shing%Leung%NULL%1,   Anthony Raymond%Tam%NULL%1,   Tak-Chiu%Wu%NULL%1,   David Christopher%Lung%NULL%1,   Cyril Chik-Yan%Yip%NULL%1,   Jian-Piao%Cai%NULL%2,   Jacky Man-Chun%Chan%NULL%1,   Thomas Shiu-Hong%Chik%NULL%1,   Daphne Pui-Ling%Lau%NULL%1,   Chris Yau-Chung%Choi%NULL%1,   Lin-Lei%Chen%NULL%1,   Wan-Mui%Chan%NULL%1,   Kwok-Hung%Chan%NULL%3,   Jonathan Daniel%Ip%NULL%1,   Anthony Chin-Ki%Ng%NULL%1,   Rosana Wing-Shan%Poon%NULL%1,   Cui-Ting%Luo%NULL%1,   Vincent Chi-Chung%Cheng%NULL%1,   Jasper Fuk-Woo%Chan%NULL%2,   Ivan Fan-Ngai%Hung%NULL%1,   Zhiwei%Chen%NULL%1,   Honglin%Chen%NULL%1,   Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%2,    Qi%Zhang%null%2,    Jiwan%Ge%null%1,    Ruoke%Wang%null%1,    Jing%Sun%null%1,    Xiangyang%Ge%null%1,    Jiazhen%Yu%null%1,    Sisi%Shan%null%1,    Bing%Zhou%null%1,    Shuo%Song%null%1,    Xian%Tang%null%1,    Jinfang%Yu%null%1,    Jun%Lan%null%1,    Jing%Yuan%null%1,    Haiyan%Wang%null%1,    Juanjuan%Zhao%null%1,    Shuye%Zhang%null%1,    Youchun%Wang%null%1,    Xuanling%Shi%null%1,    Lei%Liu%null%0,    Jincun%Zhao%null%1,    Xinquan%Wang%null%1,    Zheng%Zhang%null%1,    Linqi%Zhang%null%1,  Bin%Ju%null%0,  Qi%Zhang%null%1,  Jiwan%Ge%null%1,  Ruoke%Wang%null%1,  Jing%Sun%null%1,  Xiangyang%Ge%null%1,  Jiazhen%Yu%null%1,  Sisi%Shan%null%1,  Bing%Zhou%null%1,  Shuo%Song%null%1,  Xian%Tang%null%1,  Jinfang%Yu%null%1,  Jun%Lan%null%1,  Jing%Yuan%null%0,  Haiyan%Wang%null%1,  Juanjuan%Zhao%null%1,  Shuye%Zhang%null%1,  Youchun%Wang%null%1,  Xuanling%Shi%null%1,  Lei%Liu%null%0,  Jincun%Zhao%null%1,  Xinquan%Wang%null%1,  Zheng%Zhang%null%0,  Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,   Guillaume%Carissimo%NULL%1,   Bei%Wang%NULL%2,   Bei%Wang%NULL%0,   Siti Naqiah%Amrun%NULL%1,   Cheryl Yi-Pin%Lee%NULL%1,   Rhonda Sin-Ling%Chee%NULL%1,   Siew-Wai%Fong%NULL%1,   Nicholas Kim-Wah%Yeo%NULL%1,   Wen-Hsin%Lee%NULL%1,   Anthony%Torres-Ruesta%NULL%1,   Yee-Sin%Leo%NULL%2,   Yee-Sin%Leo%NULL%0,   Mark I-Cheng%Chen%NULL%1,   Seow-Yen%Tan%NULL%1,   Louis Yi Ann%Chai%NULL%1,   Shirin%Kalimuddin%NULL%1,   Shirley Seah Gek%Kheng%NULL%1,   Siew-Yee%Thien%NULL%1,   Barnaby Edward%Young%NULL%1,   David C.%Lye%NULL%1,   Brendon John%Hanson%NULL%1,   Cheng-I%Wang%NULL%1,   Laurent%Renia%NULL%1,   Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,   Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,   Rong-Hui%Du%NULL%1,   Bei%Li%NULL%1,   Xiao-Shuang%Zheng%NULL%1,   Xing-Lou%Yang%NULL%1,   Ben%Hu%NULL%1,   Yan-Yi%Wang%NULL%1,   Geng-Fu%Xiao%NULL%1,   Bing%Yan%NULL%1,   Zheng-Li%Shi%NULL%1,   Peng%Zhou%NULL%2,   Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%2,    Daniel%Stadlbauer%null%1,    Shirin%Strohmeier%null%1,    Thi H. O.%Nguyen%null%1,    Veronika%Chromikova%null%1,    Meagan%McMahon%null%1,    Kaijun%Jiang%null%1,    Guha Asthagiri%Arunkumar%null%1,    Denise%Jurczyszak%null%1,    Jose%Polanco%null%1,    Maria%Bermudez-Gonzalez%null%1,    Giulio%Kleiner%null%1,    Teresa%Aydillo%null%1,    Lisa%Miorin%null%1,    Daniel S.%Fierer%null%1,    Luz Amarilis%Lugo%null%1,    Erna Milunka%Kojic%null%1,    Jonathan%Stoever%null%1,    Sean T. H.%Liu%null%1,    Charlotte%Cunningham-Rundles%null%1,    Philip L.%Felgner%null%1,    Thomas%Moran%null%1,    Adolfo%García-Sastre%null%1,    Daniel%Caplivski%null%1,    Allen C.%Cheng%null%1,    Katherine%Kedzierska%null%1,    Olli%Vapalahti%null%1,    Jussi M.%Hepojoki%null%1,    Viviana%Simon%null%1,    Florian%Krammer%null%1,  Fatima%Amanat%null%0,  Daniel%Stadlbauer%null%1,  Shirin%Strohmeier%null%1,  Thi H. O.%Nguyen%null%1,  Veronika%Chromikova%null%1,  Meagan%McMahon%null%1,  Kaijun%Jiang%null%1,  Guha Asthagiri%Arunkumar%null%1,  Denise%Jurczyszak%null%1,  Jose%Polanco%null%1,  Maria%Bermudez-Gonzalez%null%1,  Giulio%Kleiner%null%1,  Teresa%Aydillo%null%1,  Lisa%Miorin%null%1,  Daniel S.%Fierer%null%1,  Luz Amarilis%Lugo%null%1,  Erna Milunka%Kojic%null%1,  Jonathan%Stoever%null%1,  Sean T. H.%Liu%null%1,  Charlotte%Cunningham-Rundles%null%1,  Philip L.%Felgner%null%1,  Thomas%Moran%null%1,  Adolfo%García-Sastre%null%1,  Daniel%Caplivski%null%1,  Allen C.%Cheng%null%1,  Katherine%Kedzierska%null%1,  Olli%Vapalahti%null%1,  Jussi M.%Hepojoki%null%1,  Viviana%Simon%null%1,  Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,   Huangqi%Zhang%NULL%2,   Huangqi%Zhang%NULL%0,   Jicheng%Xie%NULL%2,   Jicheng%Xie%NULL%0,   Minjie%Lin%NULL%2,   Minjie%Lin%NULL%0,   Lingjun%Ying%NULL%2,   Lingjun%Ying%NULL%0,   Peipei%Pang%NULL%2,   Peipei%Pang%NULL%0,   Wenbin%Ji%1224190004@qq.com%2,   Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -622,6 +664,9 @@
       <c r="H1" t="s">
         <v>23</v>
       </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -637,7 +682,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -647,6 +692,9 @@
       </c>
       <c r="H2" t="s">
         <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -663,16 +711,19 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -689,7 +740,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -699,6 +750,9 @@
       </c>
       <c r="H4" t="s">
         <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -715,7 +769,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -725,6 +779,9 @@
       </c>
       <c r="H5" t="s">
         <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -741,7 +798,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -751,6 +808,9 @@
       </c>
       <c r="H6" t="s">
         <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -767,7 +827,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -777,6 +837,9 @@
       </c>
       <c r="H7" t="s">
         <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -793,7 +856,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -803,6 +866,9 @@
       </c>
       <c r="H8" t="s">
         <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -819,7 +885,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -829,6 +895,9 @@
       </c>
       <c r="H9" t="s">
         <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -845,7 +914,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -855,6 +924,9 @@
       </c>
       <c r="H10" t="s">
         <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="127">
   <si>
     <t>Doi</t>
   </si>
@@ -340,6 +340,114 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,   Huangqi%Zhang%NULL%2,   Huangqi%Zhang%NULL%0,   Jicheng%Xie%NULL%2,   Jicheng%Xie%NULL%0,   Minjie%Lin%NULL%2,   Minjie%Lin%NULL%0,   Lingjun%Ying%NULL%2,   Lingjun%Ying%NULL%0,   Peipei%Pang%NULL%2,   Peipei%Pang%NULL%0,   Wenbin%Ji%1224190004@qq.com%2,   Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,    Zhenyu%Pan%NULL%2,    Yunbao%Pan%NULL%2,    Qiaoling%Deng%NULL%2,    Liangjun%Chen%NULL%2,    Jin%Li%NULL%2,    Yirong%Li%NULL%3,    Xinghuan%Wang%NULL%6]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,     W.% Jiang%null%1,     Q.% He%null%1,     C.% Wang%null%2,     B.% Wang%null%2,     P.% Zhou%null%1,     N.% Dong%null%1,     Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,    Pingzheng%Mo%NULL%2,    Yu%Xiao%NULL%4,    Oiu%Zhao%NULL%1,    Yongxi%Zhang%NULL%6,    Fan%Wang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,    Owen Tak-Yin%Tsang%NULL%1,    Wai-Shing%Leung%NULL%1,    Anthony Raymond%Tam%NULL%1,    Tak-Chiu%Wu%NULL%1,    David Christopher%Lung%NULL%1,    Cyril Chik-Yan%Yip%NULL%1,    Jian-Piao%Cai%NULL%2,    Jacky Man-Chun%Chan%NULL%1,    Thomas Shiu-Hong%Chik%NULL%1,    Daphne Pui-Ling%Lau%NULL%1,    Chris Yau-Chung%Choi%NULL%1,    Lin-Lei%Chen%NULL%1,    Wan-Mui%Chan%NULL%1,    Kwok-Hung%Chan%NULL%2,    Jonathan Daniel%Ip%NULL%1,    Anthony Chin-Ki%Ng%NULL%1,    Rosana Wing-Shan%Poon%NULL%1,    Cui-Ting%Luo%NULL%1,    Vincent Chi-Chung%Cheng%NULL%1,    Jasper Fuk-Woo%Chan%NULL%2,    Ivan Fan-Ngai%Hung%NULL%1,    Zhiwei%Chen%NULL%1,    Honglin%Chen%NULL%1,    Kwok-Yung%Yuen%NULL%9]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,     Qi%Zhang%null%2,     Jiwan%Ge%null%1,     Ruoke%Wang%null%1,     Jing%Sun%null%1,     Xiangyang%Ge%null%1,     Jiazhen%Yu%null%1,     Sisi%Shan%null%1,     Bing%Zhou%null%1,     Shuo%Song%null%1,     Xian%Tang%null%1,     Jinfang%Yu%null%1,     Jun%Lan%null%1,     Jing%Yuan%null%1,     Haiyan%Wang%null%1,     Juanjuan%Zhao%null%1,     Shuye%Zhang%null%1,     Youchun%Wang%null%1,     Xuanling%Shi%null%1,     Lei%Liu%null%0,     Jincun%Zhao%null%1,     Xinquan%Wang%null%1,     Zheng%Zhang%null%1,     Linqi%Zhang%null%1,   Bin%Ju%null%1,   Qi%Zhang%null%1,   Jiwan%Ge%null%1,   Ruoke%Wang%null%1,   Jing%Sun%null%1,   Xiangyang%Ge%null%1,   Jiazhen%Yu%null%1,   Sisi%Shan%null%1,   Bing%Zhou%null%1,   Shuo%Song%null%1,   Xian%Tang%null%1,   Jinfang%Yu%null%1,   Jun%Lan%null%1,   Jing%Yuan%null%0,   Haiyan%Wang%null%1,   Juanjuan%Zhao%null%1,   Shuye%Zhang%null%1,   Youchun%Wang%null%1,   Xuanling%Shi%null%1,   Lei%Liu%null%0,   Jincun%Zhao%null%1,   Xinquan%Wang%null%1,   Zheng%Zhang%null%0,   Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,    Guillaume%Carissimo%NULL%1,    Bei%Wang%NULL%2,    Bei%Wang%NULL%0,    Siti Naqiah%Amrun%NULL%1,    Cheryl Yi-Pin%Lee%NULL%1,    Rhonda Sin-Ling%Chee%NULL%1,    Siew-Wai%Fong%NULL%1,    Nicholas Kim-Wah%Yeo%NULL%1,    Wen-Hsin%Lee%NULL%1,    Anthony%Torres-Ruesta%NULL%1,    Yee-Sin%Leo%NULL%2,    Yee-Sin%Leo%NULL%0,    Mark I-Cheng%Chen%NULL%1,    Seow-Yen%Tan%NULL%1,    Louis Yi Ann%Chai%NULL%1,    Shirin%Kalimuddin%NULL%1,    Shirley Seah Gek%Kheng%NULL%1,    Siew-Yee%Thien%NULL%1,    Barnaby Edward%Young%NULL%1,    David C.%Lye%NULL%1,    Brendon John%Hanson%NULL%1,    Cheng-I%Wang%NULL%1,    Laurent%Renia%NULL%1,    Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,    Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%2,    Rong-Hui%Du%NULL%1,    Bei%Li%NULL%1,    Xiao-Shuang%Zheng%NULL%1,    Xing-Lou%Yang%NULL%1,    Ben%Hu%NULL%1,    Yan-Yi%Wang%NULL%1,    Geng-Fu%Xiao%NULL%1,    Bing%Yan%NULL%1,    Zheng-Li%Shi%NULL%1,    Peng%Zhou%NULL%2,    Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,     Daniel%Stadlbauer%null%1,     Shirin%Strohmeier%null%1,     Thi H. O.%Nguyen%null%1,     Veronika%Chromikova%null%1,     Meagan%McMahon%null%1,     Kaijun%Jiang%null%1,     Guha Asthagiri%Arunkumar%null%1,     Denise%Jurczyszak%null%1,     Jose%Polanco%null%1,     Maria%Bermudez-Gonzalez%null%1,     Giulio%Kleiner%null%1,     Teresa%Aydillo%null%1,     Lisa%Miorin%null%1,     Daniel S.%Fierer%null%1,     Luz Amarilis%Lugo%null%1,     Erna Milunka%Kojic%null%1,     Jonathan%Stoever%null%1,     Sean T. H.%Liu%null%1,     Charlotte%Cunningham-Rundles%null%1,     Philip L.%Felgner%null%1,     Thomas%Moran%null%1,     Adolfo%García-Sastre%null%1,     Daniel%Caplivski%null%1,     Allen C.%Cheng%null%1,     Katherine%Kedzierska%null%1,     Olli%Vapalahti%null%1,     Jussi M.%Hepojoki%null%1,     Viviana%Simon%null%1,     Florian%Krammer%null%1,   Fatima%Amanat%null%1,   Daniel%Stadlbauer%null%1,   Shirin%Strohmeier%null%1,   Thi H. O.%Nguyen%null%1,   Veronika%Chromikova%null%1,   Meagan%McMahon%null%1,   Kaijun%Jiang%null%1,   Guha Asthagiri%Arunkumar%null%1,   Denise%Jurczyszak%null%1,   Jose%Polanco%null%1,   Maria%Bermudez-Gonzalez%null%1,   Giulio%Kleiner%null%1,   Teresa%Aydillo%null%1,   Lisa%Miorin%null%1,   Daniel S.%Fierer%null%1,   Luz Amarilis%Lugo%null%1,   Erna Milunka%Kojic%null%1,   Jonathan%Stoever%null%1,   Sean T. H.%Liu%null%1,   Charlotte%Cunningham-Rundles%null%1,   Philip L.%Felgner%null%1,   Thomas%Moran%null%1,   Adolfo%García-Sastre%null%1,   Daniel%Caplivski%null%1,   Allen C.%Cheng%null%1,   Katherine%Kedzierska%null%1,   Olli%Vapalahti%null%1,   Jussi M.%Hepojoki%null%1,   Viviana%Simon%null%1,   Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,    Huangqi%Zhang%NULL%2,    Huangqi%Zhang%NULL%0,    Jicheng%Xie%NULL%2,    Jicheng%Xie%NULL%0,    Minjie%Lin%NULL%2,    Minjie%Lin%NULL%0,    Lingjun%Ying%NULL%2,    Lingjun%Ying%NULL%0,    Peipei%Pang%NULL%2,    Peipei%Pang%NULL%0,    Wenbin%Ji%1224190004@qq.com%2,    Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,     Zhenyu%Pan%NULL%1,     Yunbao%Pan%NULL%1,     Qiaoling%Deng%NULL%1,     Liangjun%Chen%NULL%1,     Jin%Li%NULL%1,     Yirong%Li%NULL%4,     Xinghuan%Wang%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,      W.% Jiang%null%1,      Q.% He%null%1,      C.% Wang%null%1,      B.% Wang%null%1,      P.% Zhou%null%1,      N.% Dong%null%1,      Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,     Pingzheng%Mo%NULL%1,     Yu%Xiao%NULL%4,     Oiu%Zhao%NULL%1,     Yongxi%Zhang%NULL%8,     Fan%Wang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,     Owen Tak-Yin%Tsang%NULL%1,     Wai-Shing%Leung%NULL%1,     Anthony Raymond%Tam%NULL%1,     Tak-Chiu%Wu%NULL%1,     David Christopher%Lung%NULL%1,     Cyril Chik-Yan%Yip%NULL%1,     Jian-Piao%Cai%NULL%2,     Jacky Man-Chun%Chan%NULL%1,     Thomas Shiu-Hong%Chik%NULL%1,     Daphne Pui-Ling%Lau%NULL%1,     Chris Yau-Chung%Choi%NULL%1,     Lin-Lei%Chen%NULL%1,     Wan-Mui%Chan%NULL%1,     Kwok-Hung%Chan%NULL%2,     Jonathan Daniel%Ip%NULL%1,     Anthony Chin-Ki%Ng%NULL%1,     Rosana Wing-Shan%Poon%NULL%1,     Cui-Ting%Luo%NULL%1,     Vincent Chi-Chung%Cheng%NULL%1,     Jasper Fuk-Woo%Chan%NULL%3,     Ivan Fan-Ngai%Hung%NULL%2,     Zhiwei%Chen%NULL%1,     Honglin%Chen%NULL%1,     Kwok-Yung%Yuen%NULL%10]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,      Qi%Zhang%null%2,      Jiwan%Ge%null%1,      Ruoke%Wang%null%1,      Jing%Sun%null%1,      Xiangyang%Ge%null%1,      Jiazhen%Yu%null%1,      Sisi%Shan%null%1,      Bing%Zhou%null%1,      Shuo%Song%null%1,      Xian%Tang%null%1,      Jinfang%Yu%null%1,      Jun%Lan%null%1,      Jing%Yuan%null%2,      Haiyan%Wang%null%1,      Juanjuan%Zhao%null%1,      Shuye%Zhang%null%1,      Youchun%Wang%null%1,      Xuanling%Shi%null%1,      Lei%Liu%null%0,      Jincun%Zhao%null%1,      Xinquan%Wang%null%1,      Zheng%Zhang%null%2,      Linqi%Zhang%null%1,    Bin%Ju%null%1,    Qi%Zhang%null%1,    Jiwan%Ge%null%1,    Ruoke%Wang%null%1,    Jing%Sun%null%1,    Xiangyang%Ge%null%1,    Jiazhen%Yu%null%1,    Sisi%Shan%null%1,    Bing%Zhou%null%1,    Shuo%Song%null%1,    Xian%Tang%null%1,    Jinfang%Yu%null%1,    Jun%Lan%null%1,    Jing%Yuan%null%0,    Haiyan%Wang%null%1,    Juanjuan%Zhao%null%1,    Shuye%Zhang%null%1,    Youchun%Wang%null%1,    Xuanling%Shi%null%1,    Lei%Liu%null%0,    Jincun%Zhao%null%1,    Xinquan%Wang%null%1,    Zheng%Zhang%null%0,    Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,     Guillaume%Carissimo%NULL%1,     Bei%Wang%NULL%2,     Bei%Wang%NULL%0,     Siti Naqiah%Amrun%NULL%1,     Cheryl Yi-Pin%Lee%NULL%1,     Rhonda Sin-Ling%Chee%NULL%1,     Siew-Wai%Fong%NULL%1,     Nicholas Kim-Wah%Yeo%NULL%1,     Wen-Hsin%Lee%NULL%1,     Anthony%Torres-Ruesta%NULL%1,     Yee-Sin%Leo%NULL%2,     Yee-Sin%Leo%NULL%0,     Mark I-Cheng%Chen%NULL%1,     Seow-Yen%Tan%NULL%1,     Louis Yi Ann%Chai%NULL%1,     Shirin%Kalimuddin%NULL%1,     Shirley Seah Gek%Kheng%NULL%1,     Siew-Yee%Thien%NULL%1,     Barnaby Edward%Young%NULL%2,     David C.%Lye%NULL%1,     Brendon John%Hanson%NULL%1,     Cheng-I%Wang%NULL%1,     Laurent%Renia%NULL%1,     Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,     Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,     Rong-Hui%Du%NULL%1,     Bei%Li%NULL%1,     Xiao-Shuang%Zheng%NULL%1,     Xing-Lou%Yang%NULL%1,     Ben%Hu%NULL%1,     Yan-Yi%Wang%NULL%1,     Geng-Fu%Xiao%NULL%1,     Bing%Yan%NULL%1,     Zheng-Li%Shi%NULL%1,     Peng%Zhou%NULL%2,     Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,      Daniel%Stadlbauer%null%1,      Shirin%Strohmeier%null%1,      Thi H. O.%Nguyen%null%1,      Veronika%Chromikova%null%1,      Meagan%McMahon%null%1,      Kaijun%Jiang%null%1,      Guha Asthagiri%Arunkumar%null%1,      Denise%Jurczyszak%null%1,      Jose%Polanco%null%1,      Maria%Bermudez-Gonzalez%null%1,      Giulio%Kleiner%null%1,      Teresa%Aydillo%null%1,      Lisa%Miorin%null%1,      Daniel S.%Fierer%null%1,      Luz Amarilis%Lugo%null%1,      Erna Milunka%Kojic%null%1,      Jonathan%Stoever%null%1,      Sean T. H.%Liu%null%1,      Charlotte%Cunningham-Rundles%null%1,      Philip L.%Felgner%null%1,      Thomas%Moran%null%1,      Adolfo%García-Sastre%null%1,      Daniel%Caplivski%null%1,      Allen C.%Cheng%null%1,      Katherine%Kedzierska%null%1,      Olli%Vapalahti%null%1,      Jussi M.%Hepojoki%null%1,      Viviana%Simon%null%1,      Florian%Krammer%null%1,    Fatima%Amanat%null%1,    Daniel%Stadlbauer%null%1,    Shirin%Strohmeier%null%1,    Thi H. O.%Nguyen%null%1,    Veronika%Chromikova%null%1,    Meagan%McMahon%null%1,    Kaijun%Jiang%null%1,    Guha Asthagiri%Arunkumar%null%1,    Denise%Jurczyszak%null%1,    Jose%Polanco%null%1,    Maria%Bermudez-Gonzalez%null%1,    Giulio%Kleiner%null%1,    Teresa%Aydillo%null%1,    Lisa%Miorin%null%1,    Daniel S.%Fierer%null%1,    Luz Amarilis%Lugo%null%1,    Erna Milunka%Kojic%null%1,    Jonathan%Stoever%null%1,    Sean T. H.%Liu%null%1,    Charlotte%Cunningham-Rundles%null%1,    Philip L.%Felgner%null%1,    Thomas%Moran%null%1,    Adolfo%García-Sastre%null%1,    Daniel%Caplivski%null%1,    Allen C.%Cheng%null%1,    Katherine%Kedzierska%null%1,    Olli%Vapalahti%null%1,    Jussi M.%Hepojoki%null%1,    Viviana%Simon%null%1,    Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,     Huangqi%Zhang%NULL%2,     Huangqi%Zhang%NULL%0,     Jicheng%Xie%NULL%2,     Jicheng%Xie%NULL%0,     Minjie%Lin%NULL%2,     Minjie%Lin%NULL%0,     Lingjun%Ying%NULL%2,     Lingjun%Ying%NULL%0,     Peipei%Pang%NULL%2,     Peipei%Pang%NULL%0,     Wenbin%Ji%1224190004@qq.com%2,     Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,      Zhenyu%Pan%NULL%1,      Yunbao%Pan%NULL%1,      Qiaoling%Deng%NULL%1,      Liangjun%Chen%NULL%1,      Jin%Li%NULL%1,      Yirong%Li%NULL%4,      Xinghuan%Wang%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,       W.% Jiang%null%1,       Q.% He%null%1,       C.% Wang%null%1,       B.% Wang%null%1,       P.% Zhou%null%1,       N.% Dong%null%1,       Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,      Pingzheng%Mo%NULL%1,      Yu%Xiao%NULL%4,      Oiu%Zhao%NULL%1,      Yongxi%Zhang%NULL%8,      Fan%Wang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,      Owen Tak-Yin%Tsang%NULL%1,      Wai-Shing%Leung%NULL%1,      Anthony Raymond%Tam%NULL%1,      Tak-Chiu%Wu%NULL%1,      David Christopher%Lung%NULL%1,      Cyril Chik-Yan%Yip%NULL%1,      Jian-Piao%Cai%NULL%2,      Jacky Man-Chun%Chan%NULL%1,      Thomas Shiu-Hong%Chik%NULL%1,      Daphne Pui-Ling%Lau%NULL%1,      Chris Yau-Chung%Choi%NULL%1,      Lin-Lei%Chen%NULL%1,      Wan-Mui%Chan%NULL%1,      Kwok-Hung%Chan%NULL%2,      Jonathan Daniel%Ip%NULL%1,      Anthony Chin-Ki%Ng%NULL%1,      Rosana Wing-Shan%Poon%NULL%1,      Cui-Ting%Luo%NULL%1,      Vincent Chi-Chung%Cheng%NULL%1,      Jasper Fuk-Woo%Chan%NULL%3,      Ivan Fan-Ngai%Hung%NULL%2,      Zhiwei%Chen%NULL%1,      Honglin%Chen%NULL%1,      Kwok-Yung%Yuen%NULL%10]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,       Qi%Zhang%null%2,       Jiwan%Ge%null%1,       Ruoke%Wang%null%1,       Jing%Sun%null%1,       Xiangyang%Ge%null%1,       Jiazhen%Yu%null%1,       Sisi%Shan%null%1,       Bing%Zhou%null%1,       Shuo%Song%null%1,       Xian%Tang%null%1,       Jinfang%Yu%null%1,       Jun%Lan%null%1,       Jing%Yuan%null%2,       Haiyan%Wang%null%1,       Juanjuan%Zhao%null%1,       Shuye%Zhang%null%1,       Youchun%Wang%null%1,       Xuanling%Shi%null%1,       Lei%Liu%null%0,       Jincun%Zhao%null%1,       Xinquan%Wang%null%1,       Zheng%Zhang%null%2,       Linqi%Zhang%null%1,     Bin%Ju%null%1,     Qi%Zhang%null%1,     Jiwan%Ge%null%1,     Ruoke%Wang%null%1,     Jing%Sun%null%1,     Xiangyang%Ge%null%1,     Jiazhen%Yu%null%1,     Sisi%Shan%null%1,     Bing%Zhou%null%1,     Shuo%Song%null%1,     Xian%Tang%null%1,     Jinfang%Yu%null%1,     Jun%Lan%null%1,     Jing%Yuan%null%0,     Haiyan%Wang%null%1,     Juanjuan%Zhao%null%1,     Shuye%Zhang%null%1,     Youchun%Wang%null%1,     Xuanling%Shi%null%1,     Lei%Liu%null%0,     Jincun%Zhao%null%1,     Xinquan%Wang%null%1,     Zheng%Zhang%null%0,     Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,      Guillaume%Carissimo%NULL%1,      Bei%Wang%NULL%2,      Bei%Wang%NULL%0,      Siti Naqiah%Amrun%NULL%1,      Cheryl Yi-Pin%Lee%NULL%1,      Rhonda Sin-Ling%Chee%NULL%1,      Siew-Wai%Fong%NULL%1,      Nicholas Kim-Wah%Yeo%NULL%1,      Wen-Hsin%Lee%NULL%1,      Anthony%Torres-Ruesta%NULL%1,      Yee-Sin%Leo%NULL%2,      Yee-Sin%Leo%NULL%0,      Mark I-Cheng%Chen%NULL%1,      Seow-Yen%Tan%NULL%1,      Louis Yi Ann%Chai%NULL%1,      Shirin%Kalimuddin%NULL%1,      Shirley Seah Gek%Kheng%NULL%1,      Siew-Yee%Thien%NULL%1,      Barnaby Edward%Young%NULL%2,      David C.%Lye%NULL%1,      Brendon John%Hanson%NULL%1,      Cheng-I%Wang%NULL%1,      Laurent%Renia%NULL%1,      Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,      Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,      Rong-Hui%Du%NULL%1,      Bei%Li%NULL%1,      Xiao-Shuang%Zheng%NULL%1,      Xing-Lou%Yang%NULL%1,      Ben%Hu%NULL%1,      Yan-Yi%Wang%NULL%1,      Geng-Fu%Xiao%NULL%1,      Bing%Yan%NULL%1,      Zheng-Li%Shi%NULL%1,      Peng%Zhou%NULL%2,      Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,       Daniel%Stadlbauer%null%1,       Shirin%Strohmeier%null%1,       Thi H. O.%Nguyen%null%1,       Veronika%Chromikova%null%1,       Meagan%McMahon%null%1,       Kaijun%Jiang%null%1,       Guha Asthagiri%Arunkumar%null%1,       Denise%Jurczyszak%null%1,       Jose%Polanco%null%1,       Maria%Bermudez-Gonzalez%null%1,       Giulio%Kleiner%null%1,       Teresa%Aydillo%null%1,       Lisa%Miorin%null%1,       Daniel S.%Fierer%null%1,       Luz Amarilis%Lugo%null%1,       Erna Milunka%Kojic%null%1,       Jonathan%Stoever%null%1,       Sean T. H.%Liu%null%1,       Charlotte%Cunningham-Rundles%null%1,       Philip L.%Felgner%null%1,       Thomas%Moran%null%1,       Adolfo%García-Sastre%null%1,       Daniel%Caplivski%null%1,       Allen C.%Cheng%null%1,       Katherine%Kedzierska%null%1,       Olli%Vapalahti%null%1,       Jussi M.%Hepojoki%null%1,       Viviana%Simon%null%1,       Florian%Krammer%null%1,     Fatima%Amanat%null%1,     Daniel%Stadlbauer%null%1,     Shirin%Strohmeier%null%1,     Thi H. O.%Nguyen%null%1,     Veronika%Chromikova%null%1,     Meagan%McMahon%null%1,     Kaijun%Jiang%null%1,     Guha Asthagiri%Arunkumar%null%1,     Denise%Jurczyszak%null%1,     Jose%Polanco%null%1,     Maria%Bermudez-Gonzalez%null%1,     Giulio%Kleiner%null%1,     Teresa%Aydillo%null%1,     Lisa%Miorin%null%1,     Daniel S.%Fierer%null%1,     Luz Amarilis%Lugo%null%1,     Erna Milunka%Kojic%null%1,     Jonathan%Stoever%null%1,     Sean T. H.%Liu%null%1,     Charlotte%Cunningham-Rundles%null%1,     Philip L.%Felgner%null%1,     Thomas%Moran%null%1,     Adolfo%García-Sastre%null%1,     Daniel%Caplivski%null%1,     Allen C.%Cheng%null%1,     Katherine%Kedzierska%null%1,     Olli%Vapalahti%null%1,     Jussi M.%Hepojoki%null%1,     Viviana%Simon%null%1,     Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,      Huangqi%Zhang%NULL%2,      Huangqi%Zhang%NULL%0,      Jicheng%Xie%NULL%2,      Jicheng%Xie%NULL%0,      Minjie%Lin%NULL%2,      Minjie%Lin%NULL%0,      Lingjun%Ying%NULL%2,      Lingjun%Ying%NULL%0,      Peipei%Pang%NULL%2,      Peipei%Pang%NULL%0,      Wenbin%Ji%1224190004@qq.com%2,      Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,       Zhenyu%Pan%NULL%1,       Yunbao%Pan%NULL%1,       Qiaoling%Deng%NULL%1,       Liangjun%Chen%NULL%1,       Jin%Li%NULL%1,       Yirong%Li%NULL%4,       Xinghuan%Wang%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,        W.% Jiang%null%1,        Q.% He%null%1,        C.% Wang%null%1,        B.% Wang%null%1,        P.% Zhou%null%1,        N.% Dong%null%1,        Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,       Pingzheng%Mo%NULL%1,       Yu%Xiao%NULL%4,       Oiu%Zhao%NULL%1,       Yongxi%Zhang%NULL%8,       Fan%Wang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,       Owen Tak-Yin%Tsang%NULL%1,       Wai-Shing%Leung%NULL%1,       Anthony Raymond%Tam%NULL%1,       Tak-Chiu%Wu%NULL%1,       David Christopher%Lung%NULL%1,       Cyril Chik-Yan%Yip%NULL%1,       Jian-Piao%Cai%NULL%2,       Jacky Man-Chun%Chan%NULL%1,       Thomas Shiu-Hong%Chik%NULL%1,       Daphne Pui-Ling%Lau%NULL%1,       Chris Yau-Chung%Choi%NULL%1,       Lin-Lei%Chen%NULL%1,       Wan-Mui%Chan%NULL%1,       Kwok-Hung%Chan%NULL%2,       Jonathan Daniel%Ip%NULL%1,       Anthony Chin-Ki%Ng%NULL%1,       Rosana Wing-Shan%Poon%NULL%1,       Cui-Ting%Luo%NULL%1,       Vincent Chi-Chung%Cheng%NULL%1,       Jasper Fuk-Woo%Chan%NULL%3,       Ivan Fan-Ngai%Hung%NULL%2,       Zhiwei%Chen%NULL%1,       Honglin%Chen%NULL%1,       Kwok-Yung%Yuen%NULL%10]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,        Qi%Zhang%null%2,        Jiwan%Ge%null%1,        Ruoke%Wang%null%1,        Jing%Sun%null%1,        Xiangyang%Ge%null%1,        Jiazhen%Yu%null%1,        Sisi%Shan%null%1,        Bing%Zhou%null%1,        Shuo%Song%null%1,        Xian%Tang%null%1,        Jinfang%Yu%null%1,        Jun%Lan%null%1,        Jing%Yuan%null%2,        Haiyan%Wang%null%1,        Juanjuan%Zhao%null%1,        Shuye%Zhang%null%1,        Youchun%Wang%null%1,        Xuanling%Shi%null%1,        Lei%Liu%null%0,        Jincun%Zhao%null%1,        Xinquan%Wang%null%1,        Zheng%Zhang%null%2,        Linqi%Zhang%null%1,      Bin%Ju%null%1,      Qi%Zhang%null%1,      Jiwan%Ge%null%1,      Ruoke%Wang%null%1,      Jing%Sun%null%1,      Xiangyang%Ge%null%1,      Jiazhen%Yu%null%1,      Sisi%Shan%null%1,      Bing%Zhou%null%1,      Shuo%Song%null%1,      Xian%Tang%null%1,      Jinfang%Yu%null%1,      Jun%Lan%null%1,      Jing%Yuan%null%0,      Haiyan%Wang%null%1,      Juanjuan%Zhao%null%1,      Shuye%Zhang%null%1,      Youchun%Wang%null%1,      Xuanling%Shi%null%1,      Lei%Liu%null%0,      Jincun%Zhao%null%1,      Xinquan%Wang%null%1,      Zheng%Zhang%null%0,      Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,       Guillaume%Carissimo%NULL%1,       Bei%Wang%NULL%2,       Bei%Wang%NULL%0,       Siti Naqiah%Amrun%NULL%1,       Cheryl Yi-Pin%Lee%NULL%1,       Rhonda Sin-Ling%Chee%NULL%1,       Siew-Wai%Fong%NULL%1,       Nicholas Kim-Wah%Yeo%NULL%1,       Wen-Hsin%Lee%NULL%1,       Anthony%Torres-Ruesta%NULL%1,       Yee-Sin%Leo%NULL%2,       Yee-Sin%Leo%NULL%0,       Mark I-Cheng%Chen%NULL%1,       Seow-Yen%Tan%NULL%1,       Louis Yi Ann%Chai%NULL%1,       Shirin%Kalimuddin%NULL%1,       Shirley Seah Gek%Kheng%NULL%1,       Siew-Yee%Thien%NULL%1,       Barnaby Edward%Young%NULL%2,       David C.%Lye%NULL%1,       Brendon John%Hanson%NULL%1,       Cheng-I%Wang%NULL%1,       Laurent%Renia%NULL%1,       Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,       Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,       Rong-Hui%Du%NULL%1,       Bei%Li%NULL%1,       Xiao-Shuang%Zheng%NULL%1,       Xing-Lou%Yang%NULL%1,       Ben%Hu%NULL%1,       Yan-Yi%Wang%NULL%1,       Geng-Fu%Xiao%NULL%1,       Bing%Yan%NULL%1,       Zheng-Li%Shi%NULL%1,       Peng%Zhou%NULL%2,       Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,        Daniel%Stadlbauer%null%1,        Shirin%Strohmeier%null%1,        Thi H. O.%Nguyen%null%1,        Veronika%Chromikova%null%1,        Meagan%McMahon%null%1,        Kaijun%Jiang%null%1,        Guha Asthagiri%Arunkumar%null%1,        Denise%Jurczyszak%null%1,        Jose%Polanco%null%1,        Maria%Bermudez-Gonzalez%null%1,        Giulio%Kleiner%null%1,        Teresa%Aydillo%null%1,        Lisa%Miorin%null%1,        Daniel S.%Fierer%null%1,        Luz Amarilis%Lugo%null%1,        Erna Milunka%Kojic%null%1,        Jonathan%Stoever%null%1,        Sean T. H.%Liu%null%1,        Charlotte%Cunningham-Rundles%null%1,        Philip L.%Felgner%null%1,        Thomas%Moran%null%1,        Adolfo%García-Sastre%null%1,        Daniel%Caplivski%null%1,        Allen C.%Cheng%null%1,        Katherine%Kedzierska%null%1,        Olli%Vapalahti%null%1,        Jussi M.%Hepojoki%null%1,        Viviana%Simon%null%1,        Florian%Krammer%null%1,      Fatima%Amanat%null%1,      Daniel%Stadlbauer%null%1,      Shirin%Strohmeier%null%1,      Thi H. O.%Nguyen%null%1,      Veronika%Chromikova%null%1,      Meagan%McMahon%null%1,      Kaijun%Jiang%null%1,      Guha Asthagiri%Arunkumar%null%1,      Denise%Jurczyszak%null%1,      Jose%Polanco%null%1,      Maria%Bermudez-Gonzalez%null%1,      Giulio%Kleiner%null%1,      Teresa%Aydillo%null%1,      Lisa%Miorin%null%1,      Daniel S.%Fierer%null%1,      Luz Amarilis%Lugo%null%1,      Erna Milunka%Kojic%null%1,      Jonathan%Stoever%null%1,      Sean T. H.%Liu%null%1,      Charlotte%Cunningham-Rundles%null%1,      Philip L.%Felgner%null%1,      Thomas%Moran%null%1,      Adolfo%García-Sastre%null%1,      Daniel%Caplivski%null%1,      Allen C.%Cheng%null%1,      Katherine%Kedzierska%null%1,      Olli%Vapalahti%null%1,      Jussi M.%Hepojoki%null%1,      Viviana%Simon%null%1,      Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,       Huangqi%Zhang%NULL%2,       Huangqi%Zhang%NULL%0,       Jicheng%Xie%NULL%2,       Jicheng%Xie%NULL%0,       Minjie%Lin%NULL%2,       Minjie%Lin%NULL%0,       Lingjun%Ying%NULL%2,       Lingjun%Ying%NULL%0,       Peipei%Pang%NULL%2,       Peipei%Pang%NULL%0,       Wenbin%Ji%1224190004@qq.com%2,       Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -682,7 +790,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -711,7 +819,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -740,7 +848,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -769,7 +877,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -798,7 +906,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -827,7 +935,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -856,7 +964,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -885,7 +993,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -914,7 +1022,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="145">
   <si>
     <t>Doi</t>
   </si>
@@ -448,6 +448,60 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,       Huangqi%Zhang%NULL%2,       Huangqi%Zhang%NULL%0,       Jicheng%Xie%NULL%2,       Jicheng%Xie%NULL%0,       Minjie%Lin%NULL%2,       Minjie%Lin%NULL%0,       Lingjun%Ying%NULL%2,       Lingjun%Ying%NULL%0,       Peipei%Pang%NULL%2,       Peipei%Pang%NULL%0,       Wenbin%Ji%1224190004@qq.com%2,       Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%3,        Zhenyu%Pan%NULL%2,        Yunbao%Pan%NULL%2,        Qiaoling%Deng%NULL%2,        Liangjun%Chen%NULL%2,        Jin%Li%NULL%2,        Yirong%Li%NULL%4,        Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,         W.% Jiang%null%1,         Q.% He%null%1,         C.% Wang%null%2,         B.% Wang%null%2,         P.% Zhou%null%1,         N.% Dong%null%1,         Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,        Pingzheng%Mo%NULL%2,        Yu%Xiao%NULL%2,        Oiu%Zhao%NULL%1,        Yongxi%Zhang%NULL%4,        Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,        Owen Tak-Yin%Tsang%NULL%1,        Wai-Shing%Leung%NULL%1,        Anthony Raymond%Tam%NULL%1,        Tak-Chiu%Wu%NULL%1,        David Christopher%Lung%NULL%1,        Cyril Chik-Yan%Yip%NULL%1,        Jian-Piao%Cai%NULL%2,        Jacky Man-Chun%Chan%NULL%1,        Thomas Shiu-Hong%Chik%NULL%1,        Daphne Pui-Ling%Lau%NULL%1,        Chris Yau-Chung%Choi%NULL%1,        Lin-Lei%Chen%NULL%1,        Wan-Mui%Chan%NULL%1,        Kwok-Hung%Chan%NULL%2,        Jonathan Daniel%Ip%NULL%1,        Anthony Chin-Ki%Ng%NULL%1,        Rosana Wing-Shan%Poon%NULL%1,        Cui-Ting%Luo%NULL%1,        Vincent Chi-Chung%Cheng%NULL%1,        Jasper Fuk-Woo%Chan%NULL%3,        Ivan Fan-Ngai%Hung%NULL%2,        Zhiwei%Chen%NULL%1,        Honglin%Chen%NULL%1,        Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,         Qi%Zhang%null%2,         Jiwan%Ge%null%1,         Ruoke%Wang%null%1,         Jing%Sun%null%1,         Xiangyang%Ge%null%1,         Jiazhen%Yu%null%1,         Sisi%Shan%null%1,         Bing%Zhou%null%1,         Shuo%Song%null%1,         Xian%Tang%null%1,         Jinfang%Yu%null%1,         Jun%Lan%null%1,         Jing%Yuan%null%3,         Haiyan%Wang%null%1,         Juanjuan%Zhao%null%1,         Shuye%Zhang%null%1,         Youchun%Wang%null%1,         Xuanling%Shi%null%1,         Lei%Liu%null%0,         Jincun%Zhao%null%1,         Xinquan%Wang%null%1,         Zheng%Zhang%null%3,         Linqi%Zhang%null%1,       Bin%Ju%null%1,       Qi%Zhang%null%1,       Jiwan%Ge%null%1,       Ruoke%Wang%null%1,       Jing%Sun%null%1,       Xiangyang%Ge%null%1,       Jiazhen%Yu%null%1,       Sisi%Shan%null%1,       Bing%Zhou%null%1,       Shuo%Song%null%1,       Xian%Tang%null%1,       Jinfang%Yu%null%1,       Jun%Lan%null%1,       Jing%Yuan%null%0,       Haiyan%Wang%null%1,       Juanjuan%Zhao%null%1,       Shuye%Zhang%null%1,       Youchun%Wang%null%1,       Xuanling%Shi%null%1,       Lei%Liu%null%0,       Jincun%Zhao%null%1,       Xinquan%Wang%null%1,       Zheng%Zhang%null%0,       Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,        Guillaume%Carissimo%NULL%1,        Bei%Wang%NULL%2,        Bei%Wang%NULL%0,        Siti Naqiah%Amrun%NULL%1,        Cheryl Yi-Pin%Lee%NULL%1,        Rhonda Sin-Ling%Chee%NULL%1,        Siew-Wai%Fong%NULL%1,        Nicholas Kim-Wah%Yeo%NULL%1,        Wen-Hsin%Lee%NULL%1,        Anthony%Torres-Ruesta%NULL%1,        Yee-Sin%Leo%NULL%2,        Yee-Sin%Leo%NULL%0,        Mark I-Cheng%Chen%NULL%1,        Seow-Yen%Tan%NULL%1,        Louis Yi Ann%Chai%NULL%1,        Shirin%Kalimuddin%NULL%1,        Shirley Seah Gek%Kheng%NULL%1,        Siew-Yee%Thien%NULL%1,        Barnaby Edward%Young%NULL%2,        David C.%Lye%NULL%1,        Brendon John%Hanson%NULL%1,        Cheng-I%Wang%NULL%1,        Laurent%Renia%NULL%1,        Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,        Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%2,        Rong-Hui%Du%NULL%1,        Bei%Li%NULL%1,        Xiao-Shuang%Zheng%NULL%1,        Xing-Lou%Yang%NULL%1,        Ben%Hu%NULL%1,        Yan-Yi%Wang%NULL%1,        Geng-Fu%Xiao%NULL%1,        Bing%Yan%NULL%1,        Zheng-Li%Shi%NULL%1,        Peng%Zhou%NULL%2,        Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,         Daniel%Stadlbauer%null%1,         Shirin%Strohmeier%null%1,         Thi H. O.%Nguyen%null%1,         Veronika%Chromikova%null%1,         Meagan%McMahon%null%1,         Kaijun%Jiang%null%1,         Guha Asthagiri%Arunkumar%null%1,         Denise%Jurczyszak%null%1,         Jose%Polanco%null%1,         Maria%Bermudez-Gonzalez%null%1,         Giulio%Kleiner%null%1,         Teresa%Aydillo%null%1,         Lisa%Miorin%null%1,         Daniel S.%Fierer%null%1,         Luz Amarilis%Lugo%null%1,         Erna Milunka%Kojic%null%1,         Jonathan%Stoever%null%1,         Sean T. H.%Liu%null%1,         Charlotte%Cunningham-Rundles%null%1,         Philip L.%Felgner%null%1,         Thomas%Moran%null%1,         Adolfo%García-Sastre%null%1,         Daniel%Caplivski%null%1,         Allen C.%Cheng%null%1,         Katherine%Kedzierska%null%1,         Olli%Vapalahti%null%1,         Jussi M.%Hepojoki%null%1,         Viviana%Simon%null%1,         Florian%Krammer%null%1,       Fatima%Amanat%null%1,       Daniel%Stadlbauer%null%1,       Shirin%Strohmeier%null%1,       Thi H. O.%Nguyen%null%1,       Veronika%Chromikova%null%1,       Meagan%McMahon%null%1,       Kaijun%Jiang%null%1,       Guha Asthagiri%Arunkumar%null%1,       Denise%Jurczyszak%null%1,       Jose%Polanco%null%1,       Maria%Bermudez-Gonzalez%null%1,       Giulio%Kleiner%null%1,       Teresa%Aydillo%null%1,       Lisa%Miorin%null%1,       Daniel S.%Fierer%null%1,       Luz Amarilis%Lugo%null%1,       Erna Milunka%Kojic%null%1,       Jonathan%Stoever%null%1,       Sean T. H.%Liu%null%1,       Charlotte%Cunningham-Rundles%null%1,       Philip L.%Felgner%null%1,       Thomas%Moran%null%1,       Adolfo%García-Sastre%null%1,       Daniel%Caplivski%null%1,       Allen C.%Cheng%null%1,       Katherine%Kedzierska%null%1,       Olli%Vapalahti%null%1,       Jussi M.%Hepojoki%null%1,       Viviana%Simon%null%1,       Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,        Huangqi%Zhang%NULL%2,        Huangqi%Zhang%NULL%0,        Jicheng%Xie%NULL%2,        Jicheng%Xie%NULL%0,        Minjie%Lin%NULL%2,        Minjie%Lin%NULL%0,        Lingjun%Ying%NULL%2,        Lingjun%Ying%NULL%0,        Peipei%Pang%NULL%2,        Peipei%Pang%NULL%0,        Wenbin%Ji%1224190004@qq.com%2,        Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,         Zhenyu%Pan%NULL%2,         Yunbao%Pan%NULL%2,         Qiaoling%Deng%NULL%2,         Liangjun%Chen%NULL%2,         Jin%Li%NULL%2,         Yirong%Li%NULL%4,         Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,          W.% Jiang%null%1,          Q.% He%null%1,          C.% Wang%null%2,          B.% Wang%null%2,          P.% Zhou%null%1,          N.% Dong%null%1,          Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,         Pingzheng%Mo%NULL%2,         Yu%Xiao%NULL%2,         Oiu%Zhao%NULL%1,         Yongxi%Zhang%NULL%4,         Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,         Owen Tak-Yin%Tsang%NULL%1,         Wai-Shing%Leung%NULL%1,         Anthony Raymond%Tam%NULL%1,         Tak-Chiu%Wu%NULL%1,         David Christopher%Lung%NULL%1,         Cyril Chik-Yan%Yip%NULL%1,         Jian-Piao%Cai%NULL%2,         Jacky Man-Chun%Chan%NULL%1,         Thomas Shiu-Hong%Chik%NULL%1,         Daphne Pui-Ling%Lau%NULL%1,         Chris Yau-Chung%Choi%NULL%1,         Lin-Lei%Chen%NULL%1,         Wan-Mui%Chan%NULL%1,         Kwok-Hung%Chan%NULL%2,         Jonathan Daniel%Ip%NULL%1,         Anthony Chin-Ki%Ng%NULL%1,         Rosana Wing-Shan%Poon%NULL%1,         Cui-Ting%Luo%NULL%1,         Vincent Chi-Chung%Cheng%NULL%1,         Jasper Fuk-Woo%Chan%NULL%3,         Ivan Fan-Ngai%Hung%NULL%2,         Zhiwei%Chen%NULL%1,         Honglin%Chen%NULL%1,         Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,          Qi%Zhang%null%2,          Jiwan%Ge%null%1,          Ruoke%Wang%null%1,          Jing%Sun%null%1,          Xiangyang%Ge%null%1,          Jiazhen%Yu%null%1,          Sisi%Shan%null%1,          Bing%Zhou%null%1,          Shuo%Song%null%1,          Xian%Tang%null%1,          Jinfang%Yu%null%1,          Jun%Lan%null%1,          Jing%Yuan%null%3,          Haiyan%Wang%null%1,          Juanjuan%Zhao%null%1,          Shuye%Zhang%null%1,          Youchun%Wang%null%1,          Xuanling%Shi%null%1,          Lei%Liu%null%0,          Jincun%Zhao%null%1,          Xinquan%Wang%null%1,          Zheng%Zhang%null%3,          Linqi%Zhang%null%1,        Bin%Ju%null%1,        Qi%Zhang%null%1,        Jiwan%Ge%null%1,        Ruoke%Wang%null%1,        Jing%Sun%null%1,        Xiangyang%Ge%null%1,        Jiazhen%Yu%null%1,        Sisi%Shan%null%1,        Bing%Zhou%null%1,        Shuo%Song%null%1,        Xian%Tang%null%1,        Jinfang%Yu%null%1,        Jun%Lan%null%1,        Jing%Yuan%null%0,        Haiyan%Wang%null%1,        Juanjuan%Zhao%null%1,        Shuye%Zhang%null%1,        Youchun%Wang%null%1,        Xuanling%Shi%null%1,        Lei%Liu%null%0,        Jincun%Zhao%null%1,        Xinquan%Wang%null%1,        Zheng%Zhang%null%0,        Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,         Guillaume%Carissimo%NULL%1,         Bei%Wang%NULL%2,         Bei%Wang%NULL%0,         Siti Naqiah%Amrun%NULL%1,         Cheryl Yi-Pin%Lee%NULL%1,         Rhonda Sin-Ling%Chee%NULL%1,         Siew-Wai%Fong%NULL%1,         Nicholas Kim-Wah%Yeo%NULL%1,         Wen-Hsin%Lee%NULL%1,         Anthony%Torres-Ruesta%NULL%1,         Yee-Sin%Leo%NULL%2,         Yee-Sin%Leo%NULL%0,         Mark I-Cheng%Chen%NULL%1,         Seow-Yen%Tan%NULL%1,         Louis Yi Ann%Chai%NULL%1,         Shirin%Kalimuddin%NULL%1,         Shirley Seah Gek%Kheng%NULL%1,         Siew-Yee%Thien%NULL%1,         Barnaby Edward%Young%NULL%2,         David C.%Lye%NULL%1,         Brendon John%Hanson%NULL%1,         Cheng-I%Wang%NULL%1,         Laurent%Renia%NULL%1,         Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,         Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,         Rong-Hui%Du%NULL%1,         Bei%Li%NULL%1,         Xiao-Shuang%Zheng%NULL%1,         Xing-Lou%Yang%NULL%1,         Ben%Hu%NULL%1,         Yan-Yi%Wang%NULL%1,         Geng-Fu%Xiao%NULL%1,         Bing%Yan%NULL%1,         Zheng-Li%Shi%NULL%1,         Peng%Zhou%NULL%2,         Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,          Daniel%Stadlbauer%null%1,          Shirin%Strohmeier%null%1,          Thi H. O.%Nguyen%null%1,          Veronika%Chromikova%null%1,          Meagan%McMahon%null%1,          Kaijun%Jiang%null%1,          Guha Asthagiri%Arunkumar%null%1,          Denise%Jurczyszak%null%1,          Jose%Polanco%null%1,          Maria%Bermudez-Gonzalez%null%1,          Giulio%Kleiner%null%1,          Teresa%Aydillo%null%1,          Lisa%Miorin%null%1,          Daniel S.%Fierer%null%1,          Luz Amarilis%Lugo%null%1,          Erna Milunka%Kojic%null%1,          Jonathan%Stoever%null%1,          Sean T. H.%Liu%null%1,          Charlotte%Cunningham-Rundles%null%1,          Philip L.%Felgner%null%1,          Thomas%Moran%null%1,          Adolfo%García-Sastre%null%1,          Daniel%Caplivski%null%1,          Allen C.%Cheng%null%1,          Katherine%Kedzierska%null%1,          Olli%Vapalahti%null%1,          Jussi M.%Hepojoki%null%1,          Viviana%Simon%null%1,          Florian%Krammer%null%1,        Fatima%Amanat%null%1,        Daniel%Stadlbauer%null%1,        Shirin%Strohmeier%null%1,        Thi H. O.%Nguyen%null%1,        Veronika%Chromikova%null%1,        Meagan%McMahon%null%1,        Kaijun%Jiang%null%1,        Guha Asthagiri%Arunkumar%null%1,        Denise%Jurczyszak%null%1,        Jose%Polanco%null%1,        Maria%Bermudez-Gonzalez%null%1,        Giulio%Kleiner%null%1,        Teresa%Aydillo%null%1,        Lisa%Miorin%null%1,        Daniel S.%Fierer%null%1,        Luz Amarilis%Lugo%null%1,        Erna Milunka%Kojic%null%1,        Jonathan%Stoever%null%1,        Sean T. H.%Liu%null%1,        Charlotte%Cunningham-Rundles%null%1,        Philip L.%Felgner%null%1,        Thomas%Moran%null%1,        Adolfo%García-Sastre%null%1,        Daniel%Caplivski%null%1,        Allen C.%Cheng%null%1,        Katherine%Kedzierska%null%1,        Olli%Vapalahti%null%1,        Jussi M.%Hepojoki%null%1,        Viviana%Simon%null%1,        Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,         Huangqi%Zhang%NULL%2,         Huangqi%Zhang%NULL%0,         Jicheng%Xie%NULL%2,         Jicheng%Xie%NULL%0,         Minjie%Lin%NULL%2,         Minjie%Lin%NULL%0,         Lingjun%Ying%NULL%2,         Lingjun%Ying%NULL%0,         Peipei%Pang%NULL%2,         Peipei%Pang%NULL%0,         Wenbin%Ji%1224190004@qq.com%2,         Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -790,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -819,7 +873,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -848,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -877,7 +931,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -906,7 +960,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -935,7 +989,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -964,7 +1018,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -993,7 +1047,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1022,7 +1076,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="165">
   <si>
     <t>Doi</t>
   </si>
@@ -502,6 +502,80 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,         Huangqi%Zhang%NULL%2,         Huangqi%Zhang%NULL%0,         Jicheng%Xie%NULL%2,         Jicheng%Xie%NULL%0,         Minjie%Lin%NULL%2,         Minjie%Lin%NULL%0,         Lingjun%Ying%NULL%2,         Lingjun%Ying%NULL%0,         Peipei%Pang%NULL%2,         Peipei%Pang%NULL%0,         Wenbin%Ji%1224190004@qq.com%2,         Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,          Zhenyu%Pan%NULL%2,          Yunbao%Pan%NULL%2,          Qiaoling%Deng%NULL%2,          Liangjun%Chen%NULL%2,          Jin%Li%NULL%2,          Yirong%Li%NULL%4,          Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,           W.% Jiang%null%1,           Q.% He%null%1,           C.% Wang%null%2,           B.% Wang%null%2,           P.% Zhou%null%1,           N.% Dong%null%1,           Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,          Pingzheng%Mo%NULL%2,          Yu%Xiao%NULL%2,          Oiu%Zhao%NULL%1,          Yongxi%Zhang%NULL%4,          Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,          Owen Tak-Yin%Tsang%NULL%1,          Wai-Shing%Leung%NULL%1,          Anthony Raymond%Tam%NULL%1,          Tak-Chiu%Wu%NULL%1,          David Christopher%Lung%NULL%1,          Cyril Chik-Yan%Yip%NULL%1,          Jian-Piao%Cai%NULL%2,          Jacky Man-Chun%Chan%NULL%1,          Thomas Shiu-Hong%Chik%NULL%1,          Daphne Pui-Ling%Lau%NULL%1,          Chris Yau-Chung%Choi%NULL%1,          Lin-Lei%Chen%NULL%1,          Wan-Mui%Chan%NULL%1,          Kwok-Hung%Chan%NULL%2,          Jonathan Daniel%Ip%NULL%1,          Anthony Chin-Ki%Ng%NULL%1,          Rosana Wing-Shan%Poon%NULL%1,          Cui-Ting%Luo%NULL%1,          Vincent Chi-Chung%Cheng%NULL%1,          Jasper Fuk-Woo%Chan%NULL%3,          Ivan Fan-Ngai%Hung%NULL%2,          Zhiwei%Chen%NULL%1,          Honglin%Chen%NULL%1,          Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,           Qi%Zhang%null%2,           Jiwan%Ge%null%1,           Ruoke%Wang%null%1,           Jing%Sun%null%1,           Xiangyang%Ge%null%1,           Jiazhen%Yu%null%1,           Sisi%Shan%null%1,           Bing%Zhou%null%1,           Shuo%Song%null%1,           Xian%Tang%null%1,           Jinfang%Yu%null%1,           Jun%Lan%null%1,           Jing%Yuan%null%3,           Haiyan%Wang%null%1,           Juanjuan%Zhao%null%1,           Shuye%Zhang%null%1,           Youchun%Wang%null%1,           Xuanling%Shi%null%1,           Lei%Liu%null%0,           Jincun%Zhao%null%1,           Xinquan%Wang%null%1,           Zheng%Zhang%null%3,           Linqi%Zhang%null%1,         Bin%Ju%null%1,         Qi%Zhang%null%1,         Jiwan%Ge%null%1,         Ruoke%Wang%null%1,         Jing%Sun%null%1,         Xiangyang%Ge%null%1,         Jiazhen%Yu%null%1,         Sisi%Shan%null%1,         Bing%Zhou%null%1,         Shuo%Song%null%1,         Xian%Tang%null%1,         Jinfang%Yu%null%1,         Jun%Lan%null%1,         Jing%Yuan%null%0,         Haiyan%Wang%null%1,         Juanjuan%Zhao%null%1,         Shuye%Zhang%null%1,         Youchun%Wang%null%1,         Xuanling%Shi%null%1,         Lei%Liu%null%0,         Jincun%Zhao%null%1,         Xinquan%Wang%null%1,         Zheng%Zhang%null%0,         Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,          Guillaume%Carissimo%NULL%1,          Bei%Wang%NULL%2,          Bei%Wang%NULL%0,          Siti Naqiah%Amrun%NULL%1,          Cheryl Yi-Pin%Lee%NULL%1,          Rhonda Sin-Ling%Chee%NULL%1,          Siew-Wai%Fong%NULL%1,          Nicholas Kim-Wah%Yeo%NULL%1,          Wen-Hsin%Lee%NULL%1,          Anthony%Torres-Ruesta%NULL%1,          Yee-Sin%Leo%NULL%2,          Yee-Sin%Leo%NULL%0,          Mark I-Cheng%Chen%NULL%1,          Seow-Yen%Tan%NULL%1,          Louis Yi Ann%Chai%NULL%1,          Shirin%Kalimuddin%NULL%1,          Shirley Seah Gek%Kheng%NULL%1,          Siew-Yee%Thien%NULL%1,          Barnaby Edward%Young%NULL%2,          David C.%Lye%NULL%1,          Brendon John%Hanson%NULL%1,          Cheng-I%Wang%NULL%1,          Laurent%Renia%NULL%1,          Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,          Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,          Rong-Hui%Du%NULL%1,          Bei%Li%NULL%1,          Xiao-Shuang%Zheng%NULL%1,          Xing-Lou%Yang%NULL%1,          Ben%Hu%NULL%1,          Yan-Yi%Wang%NULL%1,          Geng-Fu%Xiao%NULL%1,          Bing%Yan%NULL%1,          Zheng-Li%Shi%NULL%1,          Peng%Zhou%NULL%2,          Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,           Daniel%Stadlbauer%null%1,           Shirin%Strohmeier%null%1,           Thi H. O.%Nguyen%null%1,           Veronika%Chromikova%null%1,           Meagan%McMahon%null%1,           Kaijun%Jiang%null%1,           Guha Asthagiri%Arunkumar%null%1,           Denise%Jurczyszak%null%1,           Jose%Polanco%null%1,           Maria%Bermudez-Gonzalez%null%1,           Giulio%Kleiner%null%1,           Teresa%Aydillo%null%1,           Lisa%Miorin%null%1,           Daniel S.%Fierer%null%1,           Luz Amarilis%Lugo%null%1,           Erna Milunka%Kojic%null%1,           Jonathan%Stoever%null%1,           Sean T. H.%Liu%null%1,           Charlotte%Cunningham-Rundles%null%1,           Philip L.%Felgner%null%1,           Thomas%Moran%null%1,           Adolfo%García-Sastre%null%1,           Daniel%Caplivski%null%1,           Allen C.%Cheng%null%1,           Katherine%Kedzierska%null%1,           Olli%Vapalahti%null%1,           Jussi M.%Hepojoki%null%1,           Viviana%Simon%null%1,           Florian%Krammer%null%1,         Fatima%Amanat%null%1,         Daniel%Stadlbauer%null%1,         Shirin%Strohmeier%null%1,         Thi H. O.%Nguyen%null%1,         Veronika%Chromikova%null%1,         Meagan%McMahon%null%1,         Kaijun%Jiang%null%1,         Guha Asthagiri%Arunkumar%null%1,         Denise%Jurczyszak%null%1,         Jose%Polanco%null%1,         Maria%Bermudez-Gonzalez%null%1,         Giulio%Kleiner%null%1,         Teresa%Aydillo%null%1,         Lisa%Miorin%null%1,         Daniel S.%Fierer%null%1,         Luz Amarilis%Lugo%null%1,         Erna Milunka%Kojic%null%1,         Jonathan%Stoever%null%1,         Sean T. H.%Liu%null%1,         Charlotte%Cunningham-Rundles%null%1,         Philip L.%Felgner%null%1,         Thomas%Moran%null%1,         Adolfo%García-Sastre%null%1,         Daniel%Caplivski%null%1,         Allen C.%Cheng%null%1,         Katherine%Kedzierska%null%1,         Olli%Vapalahti%null%1,         Jussi M.%Hepojoki%null%1,         Viviana%Simon%null%1,         Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,          Huangqi%Zhang%NULL%2,          Huangqi%Zhang%NULL%0,          Jicheng%Xie%NULL%2,          Jicheng%Xie%NULL%0,          Minjie%Lin%NULL%2,          Minjie%Lin%NULL%0,          Lingjun%Ying%NULL%2,          Lingjun%Ying%NULL%0,          Peipei%Pang%NULL%2,          Peipei%Pang%NULL%0,          Wenbin%Ji%1224190004@qq.com%2,          Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,           Zhenyu%Pan%NULL%2,           Yunbao%Pan%NULL%2,           Qiaoling%Deng%NULL%2,           Liangjun%Chen%NULL%2,           Jin%Li%NULL%2,           Yirong%Li%NULL%4,           Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,            W.% Jiang%null%1,            Q.% He%null%1,            C.% Wang%null%2,            B.% Wang%null%2,            P.% Zhou%null%1,            N.% Dong%null%1,            Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,           Pingzheng%Mo%NULL%2,           Yu%Xiao%NULL%3,           Oiu%Zhao%NULL%1,           Yongxi%Zhang%NULL%5,           Fan%Wang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,           Owen Tak-Yin%Tsang%NULL%1,           Wai-Shing%Leung%NULL%1,           Anthony Raymond%Tam%NULL%1,           Tak-Chiu%Wu%NULL%1,           David Christopher%Lung%NULL%1,           Cyril Chik-Yan%Yip%NULL%1,           Jian-Piao%Cai%NULL%2,           Jacky Man-Chun%Chan%NULL%1,           Thomas Shiu-Hong%Chik%NULL%1,           Daphne Pui-Ling%Lau%NULL%1,           Chris Yau-Chung%Choi%NULL%1,           Lin-Lei%Chen%NULL%1,           Wan-Mui%Chan%NULL%1,           Kwok-Hung%Chan%NULL%2,           Jonathan Daniel%Ip%NULL%1,           Anthony Chin-Ki%Ng%NULL%1,           Rosana Wing-Shan%Poon%NULL%1,           Cui-Ting%Luo%NULL%1,           Vincent Chi-Chung%Cheng%NULL%1,           Jasper Fuk-Woo%Chan%NULL%3,           Ivan Fan-Ngai%Hung%NULL%2,           Zhiwei%Chen%NULL%1,           Honglin%Chen%NULL%1,           Kwok-Yung%Yuen%NULL%8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The coronavirus disease 2019 (COVID-19) pandemic caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) presents a global health emergency that is in urgent need of intervention1–3.
+ The entry of SARS-CoV-2 into its target cells depends on binding between the receptor-binding domain (RBD) of the viral spike protein and its cellular receptor, angiotensin-converting enzyme 2 (ACE2)2,4–6.
+ Here we report the isolation and characterization of 206 RBD-specific monoclonal antibodies derived from single B cells from 8 individuals infected with SARS-CoV-2. We identified antibodies that potently neutralize SARS-CoV-2; this activity correlates with competition with ACE2 for binding to RBD.
+ Unexpectedly, the anti-SARS-CoV-2 antibodies and the infected plasma did not cross-react with the RBDs of SARS-CoV or Middle East respiratory syndrome-related coronavirus (MERS-CoV), although there was substantial plasma cross-reactivity to their trimeric spike proteins.
+ Analysis of the crystal structure of RBD-bound antibody revealed that steric hindrance inhibits viral engagement with ACE2, thereby blocking viral entry.
+ These findings suggest that anti-RBD antibodies are largely viral-species-specific inhibitors.
+ The antibodies identified here may be candidates for development of clinical interventions against SARS-CoV-2.
+In a study of antibodies isolated from patients infected with SARS-CoV-2, antibodies that potently neutralized the virus competed with angiotensin-converting enzyme 2 for binding to the receptor-binding domain of the viral spike protein, suggesting that antibodies that disrupt this interaction could be developed to treat SARS-CoV-2 infection.
+</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%0,  Qi%Zhang%null%1,  Jiwan%Ge%null%1,  Ruoke%Wang%null%1,  Jing%Sun%null%1,  Xiangyang%Ge%null%1,  Jiazhen%Yu%null%1,  Sisi%Shan%null%1,  Bing%Zhou%null%1,  Shuo%Song%null%1,  Xian%Tang%null%1,  Jinfang%Yu%null%1,  Jun%Lan%null%1,  Jing%Yuan%null%0,  Haiyan%Wang%null%1,  Juanjuan%Zhao%null%1,  Shuye%Zhang%null%1,  Youchun%Wang%null%1,  Xuanling%Shi%null%1,  Lei%Liu%null%0,  Jincun%Zhao%null%1,  Xinquan%Wang%null%1,  Zheng%Zhang%null%0,  Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,           Guillaume%Carissimo%NULL%1,           Bei%Wang%NULL%2,           Bei%Wang%NULL%0,           Siti Naqiah%Amrun%NULL%1,           Cheryl Yi-Pin%Lee%NULL%1,           Rhonda Sin-Ling%Chee%NULL%1,           Siew-Wai%Fong%NULL%1,           Nicholas Kim-Wah%Yeo%NULL%1,           Wen-Hsin%Lee%NULL%1,           Anthony%Torres-Ruesta%NULL%1,           Yee-Sin%Leo%NULL%2,           Yee-Sin%Leo%NULL%0,           Mark I-Cheng%Chen%NULL%1,           Seow-Yen%Tan%NULL%1,           Louis Yi Ann%Chai%NULL%1,           Shirin%Kalimuddin%NULL%1,           Shirley Seah Gek%Kheng%NULL%1,           Siew-Yee%Thien%NULL%1,           Barnaby Edward%Young%NULL%2,           David C.%Lye%NULL%1,           Brendon John%Hanson%NULL%1,           Cheng-I%Wang%NULL%1,           Laurent%Renia%NULL%1,           Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,           Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,           Rong-Hui%Du%NULL%1,           Bei%Li%NULL%1,           Xiao-Shuang%Zheng%NULL%1,           Xing-Lou%Yang%NULL%1,           Ben%Hu%NULL%1,           Yan-Yi%Wang%NULL%1,           Geng-Fu%Xiao%NULL%1,           Bing%Yan%NULL%1,           Zheng-Li%Shi%NULL%1,           Peng%Zhou%NULL%2,           Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Here, we describe a serological enzyme-linked immunosorbent assay for the screening and identification of human SARS-CoV-2 seroconverters.
+ This assay does not require the handling of infectious virus, can be adjusted to detect different antibody types in serum and plasma and is amenable to scaling.
+ Serological assays are of critical importance to help define previous exposure to SARS-CoV-2 in populations, identify highly reactive human donors for convalescent plasma therapy and investigate correlates of protection.
+Development of an enzyme-linked immunosorbent assay to detect antibodies to the SARS-CoV-2 spike protein in human sera and plasma.
+</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%0,  Daniel%Stadlbauer%null%1,  Shirin%Strohmeier%null%1,  Thi H. O.%Nguyen%null%1,  Veronika%Chromikova%null%1,  Meagan%McMahon%null%1,  Kaijun%Jiang%null%1,  Guha Asthagiri%Arunkumar%null%1,  Denise%Jurczyszak%null%1,  Jose%Polanco%null%1,  Maria%Bermudez-Gonzalez%null%1,  Giulio%Kleiner%null%1,  Teresa%Aydillo%null%1,  Lisa%Miorin%null%1,  Daniel S.%Fierer%null%1,  Luz Amarilis%Lugo%null%1,  Erna Milunka%Kojic%null%1,  Jonathan%Stoever%null%1,  Sean T. H.%Liu%null%1,  Charlotte%Cunningham-Rundles%null%1,  Philip L.%Felgner%null%1,  Thomas%Moran%null%1,  Adolfo%García-Sastre%null%1,  Daniel%Caplivski%null%1,  Allen C.%Cheng%null%1,  Katherine%Kedzierska%null%1,  Olli%Vapalahti%null%1,  Jussi M.%Hepojoki%null%1,  Viviana%Simon%null%1,  Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,           Huangqi%Zhang%NULL%2,           Huangqi%Zhang%NULL%0,           Jicheng%Xie%NULL%2,           Jicheng%Xie%NULL%0,           Minjie%Lin%NULL%2,           Minjie%Lin%NULL%0,           Lingjun%Ying%NULL%2,           Lingjun%Ying%NULL%0,           Peipei%Pang%NULL%2,           Peipei%Pang%NULL%0,           Wenbin%Ji%1224190004@qq.com%2,           Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -844,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -873,7 +947,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -902,7 +976,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -931,7 +1005,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -957,10 +1031,10 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -989,7 +1063,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1018,7 +1092,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1044,10 +1118,10 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1076,7 +1150,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="183">
   <si>
     <t>Doi</t>
   </si>
@@ -576,6 +576,66 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,           Huangqi%Zhang%NULL%2,           Huangqi%Zhang%NULL%0,           Jicheng%Xie%NULL%2,           Jicheng%Xie%NULL%0,           Minjie%Lin%NULL%2,           Minjie%Lin%NULL%0,           Lingjun%Ying%NULL%2,           Lingjun%Ying%NULL%0,           Peipei%Pang%NULL%2,           Peipei%Pang%NULL%0,           Wenbin%Ji%1224190004@qq.com%2,           Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,            Zhenyu%Pan%NULL%2,            Yunbao%Pan%NULL%2,            Qiaoling%Deng%NULL%2,            Liangjun%Chen%NULL%2,            Jin%Li%NULL%2,            Yirong%Li%NULL%4,            Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,             W.% Jiang%null%1,             Q.% He%null%1,             C.% Wang%null%2,             B.% Wang%null%2,             P.% Zhou%null%1,             N.% Dong%null%1,             Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,            Pingzheng%Mo%NULL%2,            Yu%Xiao%NULL%2,            Oiu%Zhao%NULL%1,            Yongxi%Zhang%NULL%4,            Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,            Owen Tak-Yin%Tsang%NULL%1,            Wai-Shing%Leung%NULL%1,            Anthony Raymond%Tam%NULL%1,            Tak-Chiu%Wu%NULL%1,            David Christopher%Lung%NULL%1,            Cyril Chik-Yan%Yip%NULL%1,            Jian-Piao%Cai%NULL%2,            Jacky Man-Chun%Chan%NULL%1,            Thomas Shiu-Hong%Chik%NULL%1,            Daphne Pui-Ling%Lau%NULL%1,            Chris Yau-Chung%Choi%NULL%1,            Lin-Lei%Chen%NULL%1,            Wan-Mui%Chan%NULL%1,            Kwok-Hung%Chan%NULL%2,            Jonathan Daniel%Ip%NULL%1,            Anthony Chin-Ki%Ng%NULL%1,            Rosana Wing-Shan%Poon%NULL%1,            Cui-Ting%Luo%NULL%1,            Vincent Chi-Chung%Cheng%NULL%1,            Jasper Fuk-Woo%Chan%NULL%3,            Ivan Fan-Ngai%Hung%NULL%2,            Zhiwei%Chen%NULL%1,            Honglin%Chen%NULL%1,            Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,   Qi%Zhang%null%1,   Jiwan%Ge%null%1,   Ruoke%Wang%null%1,   Jing%Sun%null%1,   Xiangyang%Ge%null%1,   Jiazhen%Yu%null%1,   Sisi%Shan%null%1,   Bing%Zhou%null%1,   Shuo%Song%null%1,   Xian%Tang%null%1,   Jinfang%Yu%null%1,   Jun%Lan%null%1,   Jing%Yuan%null%0,   Haiyan%Wang%null%1,   Juanjuan%Zhao%null%1,   Shuye%Zhang%null%1,   Youchun%Wang%null%1,   Xuanling%Shi%null%1,   Lei%Liu%null%0,   Jincun%Zhao%null%1,   Xinquan%Wang%null%1,   Zheng%Zhang%null%0,   Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given the ongoing SARS-CoV-2 pandemic, identification of immunogenic targets against the coronavirus spike glycoprotein will provide crucial advances towards the development of sensitive diagnostic tools and potential vaccine candidate targets.
+ In this study, using pools of overlapping linear B-cell peptides, we report two IgG immunodominant regions on SARS-CoV-2 spike glycoprotein that are recognised by sera from COVID-19 convalescent patients.
+ Notably, one is specific to SARS-CoV-2, which is located in close proximity to the receptor binding domain.
+ The other region, which is localised at the fusion peptide, could potentially function as a pan-SARS target.
+ Functionally, antibody depletion assays demonstrate that antibodies targeting these immunodominant regions significantly alter virus neutralisation capacities.
+ Taken together, identification and validation of these neutralising B-cell epitopes will provide insights towards the design of diagnostics and vaccine candidates against this high priority coronavirus.
+</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,            Guillaume%Carissimo%NULL%1,            Bei%Wang%NULL%2,            Bei%Wang%NULL%0,            Siti Naqiah%Amrun%NULL%1,            Cheryl Yi-Pin%Lee%NULL%1,            Rhonda Sin-Ling%Chee%NULL%1,            Siew-Wai%Fong%NULL%1,            Nicholas Kim-Wah%Yeo%NULL%1,            Wen-Hsin%Lee%NULL%1,            Anthony%Torres-Ruesta%NULL%1,            Yee-Sin%Leo%NULL%2,            Yee-Sin%Leo%NULL%0,            Mark I-Cheng%Chen%NULL%1,            Seow-Yen%Tan%NULL%1,            Louis Yi Ann%Chai%NULL%1,            Shirin%Kalimuddin%NULL%1,            Shirley Seah Gek%Kheng%NULL%1,            Siew-Yee%Thien%NULL%1,            Barnaby Edward%Young%NULL%2,            David C.%Lye%NULL%1,            Brendon John%Hanson%NULL%1,            Cheng-I%Wang%NULL%1,            Laurent%Renia%NULL%1,            Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,            Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,            Rong-Hui%Du%NULL%1,            Bei%Li%NULL%1,            Xiao-Shuang%Zheng%NULL%1,            Xing-Lou%Yang%NULL%1,            Ben%Hu%NULL%1,            Yan-Yi%Wang%NULL%1,            Geng-Fu%Xiao%NULL%1,            Bing%Yan%NULL%1,            Zheng-Li%Shi%NULL%1,            Peng%Zhou%NULL%2,            Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,            Huangqi%Zhang%NULL%2,            Huangqi%Zhang%NULL%0,            Jicheng%Xie%NULL%2,            Jicheng%Xie%NULL%0,            Minjie%Lin%NULL%2,            Minjie%Lin%NULL%0,            Lingjun%Ying%NULL%2,            Lingjun%Ying%NULL%0,            Peipei%Pang%NULL%2,            Peipei%Pang%NULL%0,            Wenbin%Ji%1224190004@qq.com%2,            Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,             Zhenyu%Pan%NULL%2,             Yunbao%Pan%NULL%2,             Qiaoling%Deng%NULL%2,             Liangjun%Chen%NULL%2,             Jin%Li%NULL%2,             Yirong%Li%NULL%4,             Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,              W.% Jiang%null%1,              Q.% He%null%1,              C.% Wang%null%2,              B.% Wang%null%2,              P.% Zhou%null%1,              N.% Dong%null%1,              Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,             Pingzheng%Mo%NULL%2,             Yu%Xiao%NULL%2,             Oiu%Zhao%NULL%1,             Yongxi%Zhang%NULL%4,             Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,             Owen Tak-Yin%Tsang%NULL%1,             Wai-Shing%Leung%NULL%1,             Anthony Raymond%Tam%NULL%1,             Tak-Chiu%Wu%NULL%1,             David Christopher%Lung%NULL%1,             Cyril Chik-Yan%Yip%NULL%1,             Jian-Piao%Cai%NULL%2,             Jacky Man-Chun%Chan%NULL%1,             Thomas Shiu-Hong%Chik%NULL%1,             Daphne Pui-Ling%Lau%NULL%1,             Chris Yau-Chung%Choi%NULL%1,             Lin-Lei%Chen%NULL%1,             Wan-Mui%Chan%NULL%1,             Kwok-Hung%Chan%NULL%2,             Jonathan Daniel%Ip%NULL%1,             Anthony Chin-Ki%Ng%NULL%1,             Rosana Wing-Shan%Poon%NULL%1,             Cui-Ting%Luo%NULL%1,             Vincent Chi-Chung%Cheng%NULL%1,             Jasper Fuk-Woo%Chan%NULL%3,             Ivan Fan-Ngai%Hung%NULL%2,             Zhiwei%Chen%NULL%1,             Honglin%Chen%NULL%1,             Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,    Qi%Zhang%null%1,    Jiwan%Ge%null%1,    Ruoke%Wang%null%1,    Jing%Sun%null%1,    Xiangyang%Ge%null%1,    Jiazhen%Yu%null%1,    Sisi%Shan%null%1,    Bing%Zhou%null%1,    Shuo%Song%null%1,    Xian%Tang%null%1,    Jinfang%Yu%null%1,    Jun%Lan%null%1,    Jing%Yuan%null%0,    Haiyan%Wang%null%1,    Juanjuan%Zhao%null%1,    Shuye%Zhang%null%1,    Youchun%Wang%null%1,    Xuanling%Shi%null%1,    Lei%Liu%null%0,    Jincun%Zhao%null%1,    Xinquan%Wang%null%1,    Zheng%Zhang%null%0,    Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,             Guillaume%Carissimo%NULL%1,             Bei%Wang%NULL%2,             Bei%Wang%NULL%0,             Siti Naqiah%Amrun%NULL%1,             Cheryl Yi-Pin%Lee%NULL%1,             Rhonda Sin-Ling%Chee%NULL%1,             Siew-Wai%Fong%NULL%1,             Nicholas Kim-Wah%Yeo%NULL%1,             Wen-Hsin%Lee%NULL%1,             Anthony%Torres-Ruesta%NULL%1,             Yee-Sin%Leo%NULL%2,             Yee-Sin%Leo%NULL%0,             Mark I-Cheng%Chen%NULL%1,             Seow-Yen%Tan%NULL%1,             Louis Yi Ann%Chai%NULL%1,             Shirin%Kalimuddin%NULL%1,             Shirley Seah Gek%Kheng%NULL%1,             Siew-Yee%Thien%NULL%1,             Barnaby Edward%Young%NULL%2,             David C.%Lye%NULL%1,             Brendon John%Hanson%NULL%1,             Cheng-I%Wang%NULL%1,             Laurent%Renia%NULL%1,             Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,             Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,             Rong-Hui%Du%NULL%1,             Bei%Li%NULL%1,             Xiao-Shuang%Zheng%NULL%1,             Xing-Lou%Yang%NULL%1,             Ben%Hu%NULL%1,             Yan-Yi%Wang%NULL%1,             Geng-Fu%Xiao%NULL%1,             Bing%Yan%NULL%1,             Zheng-Li%Shi%NULL%1,             Peng%Zhou%NULL%2,             Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,    Daniel%Stadlbauer%null%1,    Shirin%Strohmeier%null%1,    Thi H. O.%Nguyen%null%1,    Veronika%Chromikova%null%1,    Meagan%McMahon%null%1,    Kaijun%Jiang%null%1,    Guha Asthagiri%Arunkumar%null%1,    Denise%Jurczyszak%null%1,    Jose%Polanco%null%1,    Maria%Bermudez-Gonzalez%null%1,    Giulio%Kleiner%null%1,    Teresa%Aydillo%null%1,    Lisa%Miorin%null%1,    Daniel S.%Fierer%null%1,    Luz Amarilis%Lugo%null%1,    Erna Milunka%Kojic%null%1,    Jonathan%Stoever%null%1,    Sean T. H.%Liu%null%1,    Charlotte%Cunningham-Rundles%null%1,    Philip L.%Felgner%null%1,    Thomas%Moran%null%1,    Adolfo%García-Sastre%null%1,    Daniel%Caplivski%null%1,    Allen C.%Cheng%null%1,    Katherine%Kedzierska%null%1,    Olli%Vapalahti%null%1,    Jussi M.%Hepojoki%null%1,    Viviana%Simon%null%1,    Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,             Huangqi%Zhang%NULL%2,             Huangqi%Zhang%NULL%0,             Jicheng%Xie%NULL%2,             Jicheng%Xie%NULL%0,             Minjie%Lin%NULL%2,             Minjie%Lin%NULL%0,             Lingjun%Ying%NULL%2,             Lingjun%Ying%NULL%0,             Peipei%Pang%NULL%2,             Peipei%Pang%NULL%0,             Wenbin%Ji%1224190004@qq.com%2,             Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -918,7 +978,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -947,7 +1007,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -976,7 +1036,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1005,7 +1065,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1034,7 +1094,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1060,10 +1120,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1092,7 +1152,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1121,7 +1181,7 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1150,7 +1210,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="193">
   <si>
     <t>Doi</t>
   </si>
@@ -636,6 +636,36 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,             Huangqi%Zhang%NULL%2,             Huangqi%Zhang%NULL%0,             Jicheng%Xie%NULL%2,             Jicheng%Xie%NULL%0,             Minjie%Lin%NULL%2,             Minjie%Lin%NULL%0,             Lingjun%Ying%NULL%2,             Lingjun%Ying%NULL%0,             Peipei%Pang%NULL%2,             Peipei%Pang%NULL%0,             Wenbin%Ji%1224190004@qq.com%2,             Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,              Zhenyu%Pan%NULL%2,              Yunbao%Pan%NULL%2,              Qiaoling%Deng%NULL%2,              Liangjun%Chen%NULL%2,              Jin%Li%NULL%2,              Yirong%Li%NULL%4,              Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,               W.% Jiang%null%1,               Q.% He%null%1,               C.% Wang%null%2,               B.% Wang%null%2,               P.% Zhou%null%1,               N.% Dong%null%1,               Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,              Pingzheng%Mo%NULL%2,              Yu%Xiao%NULL%2,              Oiu%Zhao%NULL%1,              Yongxi%Zhang%NULL%4,              Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,              Owen Tak-Yin%Tsang%NULL%1,              Wai-Shing%Leung%NULL%1,              Anthony Raymond%Tam%NULL%1,              Tak-Chiu%Wu%NULL%1,              David Christopher%Lung%NULL%1,              Cyril Chik-Yan%Yip%NULL%1,              Jian-Piao%Cai%NULL%2,              Jacky Man-Chun%Chan%NULL%1,              Thomas Shiu-Hong%Chik%NULL%1,              Daphne Pui-Ling%Lau%NULL%1,              Chris Yau-Chung%Choi%NULL%1,              Lin-Lei%Chen%NULL%1,              Wan-Mui%Chan%NULL%1,              Kwok-Hung%Chan%NULL%2,              Jonathan Daniel%Ip%NULL%1,              Anthony Chin-Ki%Ng%NULL%1,              Rosana Wing-Shan%Poon%NULL%1,              Cui-Ting%Luo%NULL%1,              Vincent Chi-Chung%Cheng%NULL%1,              Jasper Fuk-Woo%Chan%NULL%3,              Ivan Fan-Ngai%Hung%NULL%2,              Zhiwei%Chen%NULL%1,              Honglin%Chen%NULL%1,              Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,     Qi%Zhang%null%1,     Jiwan%Ge%null%1,     Ruoke%Wang%null%1,     Jing%Sun%null%1,     Xiangyang%Ge%null%1,     Jiazhen%Yu%null%1,     Sisi%Shan%null%1,     Bing%Zhou%null%1,     Shuo%Song%null%1,     Xian%Tang%null%1,     Jinfang%Yu%null%1,     Jun%Lan%null%1,     Jing%Yuan%null%0,     Haiyan%Wang%null%1,     Juanjuan%Zhao%null%1,     Shuye%Zhang%null%1,     Youchun%Wang%null%1,     Xuanling%Shi%null%1,     Lei%Liu%null%0,     Jincun%Zhao%null%1,     Xinquan%Wang%null%1,     Zheng%Zhang%null%0,     Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,              Guillaume%Carissimo%NULL%1,              Bei%Wang%NULL%2,              Bei%Wang%NULL%0,              Siti Naqiah%Amrun%NULL%1,              Cheryl Yi-Pin%Lee%NULL%1,              Rhonda Sin-Ling%Chee%NULL%1,              Siew-Wai%Fong%NULL%1,              Nicholas Kim-Wah%Yeo%NULL%1,              Wen-Hsin%Lee%NULL%1,              Anthony%Torres-Ruesta%NULL%1,              Yee-Sin%Leo%NULL%2,              Yee-Sin%Leo%NULL%0,              Mark I-Cheng%Chen%NULL%1,              Seow-Yen%Tan%NULL%1,              Louis Yi Ann%Chai%NULL%1,              Shirin%Kalimuddin%NULL%1,              Shirley Seah Gek%Kheng%NULL%1,              Siew-Yee%Thien%NULL%1,              Barnaby Edward%Young%NULL%2,              David C.%Lye%NULL%1,              Brendon John%Hanson%NULL%1,              Cheng-I%Wang%NULL%1,              Laurent%Renia%NULL%1,              Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,              Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,              Rong-Hui%Du%NULL%1,              Bei%Li%NULL%1,              Xiao-Shuang%Zheng%NULL%1,              Xing-Lou%Yang%NULL%1,              Ben%Hu%NULL%1,              Yan-Yi%Wang%NULL%1,              Geng-Fu%Xiao%NULL%1,              Bing%Yan%NULL%1,              Zheng-Li%Shi%NULL%1,              Peng%Zhou%NULL%2,              Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,     Daniel%Stadlbauer%null%1,     Shirin%Strohmeier%null%1,     Thi H. O.%Nguyen%null%1,     Veronika%Chromikova%null%1,     Meagan%McMahon%null%1,     Kaijun%Jiang%null%1,     Guha Asthagiri%Arunkumar%null%1,     Denise%Jurczyszak%null%1,     Jose%Polanco%null%1,     Maria%Bermudez-Gonzalez%null%1,     Giulio%Kleiner%null%1,     Teresa%Aydillo%null%1,     Lisa%Miorin%null%1,     Daniel S.%Fierer%null%1,     Luz Amarilis%Lugo%null%1,     Erna Milunka%Kojic%null%1,     Jonathan%Stoever%null%1,     Sean T. H.%Liu%null%1,     Charlotte%Cunningham-Rundles%null%1,     Philip L.%Felgner%null%1,     Thomas%Moran%null%1,     Adolfo%García-Sastre%null%1,     Daniel%Caplivski%null%1,     Allen C.%Cheng%null%1,     Katherine%Kedzierska%null%1,     Olli%Vapalahti%null%1,     Jussi M.%Hepojoki%null%1,     Viviana%Simon%null%1,     Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,              Huangqi%Zhang%NULL%2,              Huangqi%Zhang%NULL%0,              Jicheng%Xie%NULL%2,              Jicheng%Xie%NULL%0,              Minjie%Lin%NULL%2,              Minjie%Lin%NULL%0,              Lingjun%Ying%NULL%2,              Lingjun%Ying%NULL%0,              Peipei%Pang%NULL%2,              Peipei%Pang%NULL%0,              Wenbin%Ji%1224190004@qq.com%2,              Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1008,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1007,13 +1037,13 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -1036,7 +1066,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1065,7 +1095,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1094,7 +1124,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1123,7 +1153,7 @@
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1152,7 +1182,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1181,7 +1211,7 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1210,7 +1240,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="202">
   <si>
     <t>Doi</t>
   </si>
@@ -666,6 +666,33 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,              Huangqi%Zhang%NULL%2,              Huangqi%Zhang%NULL%0,              Jicheng%Xie%NULL%2,              Jicheng%Xie%NULL%0,              Minjie%Lin%NULL%2,              Minjie%Lin%NULL%0,              Lingjun%Ying%NULL%2,              Lingjun%Ying%NULL%0,              Peipei%Pang%NULL%2,              Peipei%Pang%NULL%0,              Wenbin%Ji%1224190004@qq.com%2,              Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,               Zhenyu%Pan%NULL%2,               Yunbao%Pan%NULL%2,               Qiaoling%Deng%NULL%2,               Liangjun%Chen%NULL%2,               Jin%Li%NULL%2,               Yirong%Li%NULL%4,               Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                W.% Jiang%null%1,                Q.% He%null%1,                C.% Wang%null%2,                B.% Wang%null%2,                P.% Zhou%null%1,                N.% Dong%null%1,                Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,               Pingzheng%Mo%NULL%2,               Yu%Xiao%NULL%2,               Oiu%Zhao%NULL%1,               Yongxi%Zhang%NULL%4,               Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,               Owen Tak-Yin%Tsang%NULL%1,               Wai-Shing%Leung%NULL%1,               Anthony Raymond%Tam%NULL%1,               Tak-Chiu%Wu%NULL%1,               David Christopher%Lung%NULL%1,               Cyril Chik-Yan%Yip%NULL%1,               Jian-Piao%Cai%NULL%2,               Jacky Man-Chun%Chan%NULL%1,               Thomas Shiu-Hong%Chik%NULL%1,               Daphne Pui-Ling%Lau%NULL%1,               Chris Yau-Chung%Choi%NULL%1,               Lin-Lei%Chen%NULL%1,               Wan-Mui%Chan%NULL%1,               Kwok-Hung%Chan%NULL%2,               Jonathan Daniel%Ip%NULL%1,               Anthony Chin-Ki%Ng%NULL%1,               Rosana Wing-Shan%Poon%NULL%1,               Cui-Ting%Luo%NULL%1,               Vincent Chi-Chung%Cheng%NULL%1,               Jasper Fuk-Woo%Chan%NULL%3,               Ivan Fan-Ngai%Hung%NULL%2,               Zhiwei%Chen%NULL%1,               Honglin%Chen%NULL%1,               Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,      Qi%Zhang%null%1,      Jiwan%Ge%null%1,      Ruoke%Wang%null%1,      Jing%Sun%null%1,      Xiangyang%Ge%null%1,      Jiazhen%Yu%null%1,      Sisi%Shan%null%1,      Bing%Zhou%null%1,      Shuo%Song%null%1,      Xian%Tang%null%1,      Jinfang%Yu%null%1,      Jun%Lan%null%1,      Jing%Yuan%null%0,      Haiyan%Wang%null%1,      Juanjuan%Zhao%null%1,      Shuye%Zhang%null%1,      Youchun%Wang%null%1,      Xuanling%Shi%null%1,      Lei%Liu%null%0,      Jincun%Zhao%null%1,      Xinquan%Wang%null%1,      Zheng%Zhang%null%0,      Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,               Guillaume%Carissimo%NULL%1,               Bei%Wang%NULL%2,               Bei%Wang%NULL%0,               Siti Naqiah%Amrun%NULL%1,               Cheryl Yi-Pin%Lee%NULL%1,               Rhonda Sin-Ling%Chee%NULL%1,               Siew-Wai%Fong%NULL%1,               Nicholas Kim-Wah%Yeo%NULL%1,               Wen-Hsin%Lee%NULL%1,               Anthony%Torres-Ruesta%NULL%1,               Yee-Sin%Leo%NULL%2,               Yee-Sin%Leo%NULL%0,               Mark I-Cheng%Chen%NULL%1,               Seow-Yen%Tan%NULL%1,               Louis Yi Ann%Chai%NULL%1,               Shirin%Kalimuddin%NULL%1,               Shirley Seah Gek%Kheng%NULL%1,               Siew-Yee%Thien%NULL%1,               Barnaby Edward%Young%NULL%2,               David C.%Lye%NULL%1,               Brendon John%Hanson%NULL%1,               Cheng-I%Wang%NULL%1,               Laurent%Renia%NULL%1,               Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,               Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,               Rong-Hui%Du%NULL%1,               Bei%Li%NULL%1,               Xiao-Shuang%Zheng%NULL%1,               Xing-Lou%Yang%NULL%1,               Ben%Hu%NULL%1,               Yan-Yi%Wang%NULL%1,               Geng-Fu%Xiao%NULL%1,               Bing%Yan%NULL%1,               Zheng-Li%Shi%NULL%1,               Peng%Zhou%NULL%2,               Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,      Daniel%Stadlbauer%null%1,      Shirin%Strohmeier%null%1,      Thi H. O.%Nguyen%null%1,      Veronika%Chromikova%null%1,      Meagan%McMahon%null%1,      Kaijun%Jiang%null%1,      Guha Asthagiri%Arunkumar%null%1,      Denise%Jurczyszak%null%1,      Jose%Polanco%null%1,      Maria%Bermudez-Gonzalez%null%1,      Giulio%Kleiner%null%1,      Teresa%Aydillo%null%1,      Lisa%Miorin%null%1,      Daniel S.%Fierer%null%1,      Luz Amarilis%Lugo%null%1,      Erna Milunka%Kojic%null%1,      Jonathan%Stoever%null%1,      Sean T. H.%Liu%null%1,      Charlotte%Cunningham-Rundles%null%1,      Philip L.%Felgner%null%1,      Thomas%Moran%null%1,      Adolfo%García-Sastre%null%1,      Daniel%Caplivski%null%1,      Allen C.%Cheng%null%1,      Katherine%Kedzierska%null%1,      Olli%Vapalahti%null%1,      Jussi M.%Hepojoki%null%1,      Viviana%Simon%null%1,      Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,               Huangqi%Zhang%NULL%2,               Huangqi%Zhang%NULL%0,               Jicheng%Xie%NULL%2,               Jicheng%Xie%NULL%0,               Minjie%Lin%NULL%2,               Minjie%Lin%NULL%0,               Lingjun%Ying%NULL%2,               Lingjun%Ying%NULL%0,               Peipei%Pang%NULL%2,               Peipei%Pang%NULL%0,               Wenbin%Ji%1224190004@qq.com%2,               Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1037,7 +1064,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1066,7 +1093,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1095,7 +1122,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1124,7 +1151,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1153,7 +1180,7 @@
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1182,7 +1209,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1211,7 +1238,7 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1240,7 +1267,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="220">
   <si>
     <t>Doi</t>
   </si>
@@ -693,6 +693,60 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,               Huangqi%Zhang%NULL%2,               Huangqi%Zhang%NULL%0,               Jicheng%Xie%NULL%2,               Jicheng%Xie%NULL%0,               Minjie%Lin%NULL%2,               Minjie%Lin%NULL%0,               Lingjun%Ying%NULL%2,               Lingjun%Ying%NULL%0,               Peipei%Pang%NULL%2,               Peipei%Pang%NULL%0,               Wenbin%Ji%1224190004@qq.com%2,               Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                Zhenyu%Pan%NULL%2,                Yunbao%Pan%NULL%2,                Qiaoling%Deng%NULL%2,                Liangjun%Chen%NULL%2,                Jin%Li%NULL%2,                Yirong%Li%NULL%4,                Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                 W.% Jiang%null%1,                 Q.% He%null%1,                 C.% Wang%null%2,                 B.% Wang%null%2,                 P.% Zhou%null%1,                 N.% Dong%null%1,                 Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                Pingzheng%Mo%NULL%2,                Yu%Xiao%NULL%2,                Oiu%Zhao%NULL%1,                Yongxi%Zhang%NULL%4,                Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                Owen Tak-Yin%Tsang%NULL%1,                Wai-Shing%Leung%NULL%1,                Anthony Raymond%Tam%NULL%1,                Tak-Chiu%Wu%NULL%1,                David Christopher%Lung%NULL%1,                Cyril Chik-Yan%Yip%NULL%1,                Jian-Piao%Cai%NULL%2,                Jacky Man-Chun%Chan%NULL%1,                Thomas Shiu-Hong%Chik%NULL%1,                Daphne Pui-Ling%Lau%NULL%1,                Chris Yau-Chung%Choi%NULL%1,                Lin-Lei%Chen%NULL%1,                Wan-Mui%Chan%NULL%1,                Kwok-Hung%Chan%NULL%2,                Jonathan Daniel%Ip%NULL%1,                Anthony Chin-Ki%Ng%NULL%1,                Rosana Wing-Shan%Poon%NULL%1,                Cui-Ting%Luo%NULL%1,                Vincent Chi-Chung%Cheng%NULL%1,                Jasper Fuk-Woo%Chan%NULL%3,                Ivan Fan-Ngai%Hung%NULL%2,                Zhiwei%Chen%NULL%1,                Honglin%Chen%NULL%1,                Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,       Qi%Zhang%null%1,       Jiwan%Ge%null%1,       Ruoke%Wang%null%1,       Jing%Sun%null%1,       Xiangyang%Ge%null%1,       Jiazhen%Yu%null%1,       Sisi%Shan%null%1,       Bing%Zhou%null%1,       Shuo%Song%null%1,       Xian%Tang%null%1,       Jinfang%Yu%null%1,       Jun%Lan%null%1,       Jing%Yuan%null%0,       Haiyan%Wang%null%1,       Juanjuan%Zhao%null%1,       Shuye%Zhang%null%1,       Youchun%Wang%null%1,       Xuanling%Shi%null%1,       Lei%Liu%null%0,       Jincun%Zhao%null%1,       Xinquan%Wang%null%1,       Zheng%Zhang%null%0,       Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                Guillaume%Carissimo%NULL%1,                Bei%Wang%NULL%2,                Bei%Wang%NULL%0,                Siti Naqiah%Amrun%NULL%1,                Cheryl Yi-Pin%Lee%NULL%1,                Rhonda Sin-Ling%Chee%NULL%1,                Siew-Wai%Fong%NULL%1,                Nicholas Kim-Wah%Yeo%NULL%1,                Wen-Hsin%Lee%NULL%1,                Anthony%Torres-Ruesta%NULL%1,                Yee-Sin%Leo%NULL%2,                Yee-Sin%Leo%NULL%0,                Mark I-Cheng%Chen%NULL%1,                Seow-Yen%Tan%NULL%1,                Louis Yi Ann%Chai%NULL%1,                Shirin%Kalimuddin%NULL%1,                Shirley Seah Gek%Kheng%NULL%1,                Siew-Yee%Thien%NULL%1,                Barnaby Edward%Young%NULL%2,                David C.%Lye%NULL%1,                Brendon John%Hanson%NULL%1,                Cheng-I%Wang%NULL%1,                Laurent%Renia%NULL%1,                Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                Rong-Hui%Du%NULL%1,                Bei%Li%NULL%1,                Xiao-Shuang%Zheng%NULL%1,                Xing-Lou%Yang%NULL%1,                Ben%Hu%NULL%1,                Yan-Yi%Wang%NULL%1,                Geng-Fu%Xiao%NULL%1,                Bing%Yan%NULL%1,                Zheng-Li%Shi%NULL%1,                Peng%Zhou%NULL%2,                Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,       Daniel%Stadlbauer%null%1,       Shirin%Strohmeier%null%1,       Thi H. O.%Nguyen%null%1,       Veronika%Chromikova%null%1,       Meagan%McMahon%null%1,       Kaijun%Jiang%null%1,       Guha Asthagiri%Arunkumar%null%1,       Denise%Jurczyszak%null%1,       Jose%Polanco%null%1,       Maria%Bermudez-Gonzalez%null%1,       Giulio%Kleiner%null%1,       Teresa%Aydillo%null%1,       Lisa%Miorin%null%1,       Daniel S.%Fierer%null%1,       Luz Amarilis%Lugo%null%1,       Erna Milunka%Kojic%null%1,       Jonathan%Stoever%null%1,       Sean T. H.%Liu%null%1,       Charlotte%Cunningham-Rundles%null%1,       Philip L.%Felgner%null%1,       Thomas%Moran%null%1,       Adolfo%García-Sastre%null%1,       Daniel%Caplivski%null%1,       Allen C.%Cheng%null%1,       Katherine%Kedzierska%null%1,       Olli%Vapalahti%null%1,       Jussi M.%Hepojoki%null%1,       Viviana%Simon%null%1,       Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                Huangqi%Zhang%NULL%2,                Huangqi%Zhang%NULL%0,                Jicheng%Xie%NULL%2,                Jicheng%Xie%NULL%0,                Minjie%Lin%NULL%2,                Minjie%Lin%NULL%0,                Lingjun%Ying%NULL%2,                Lingjun%Ying%NULL%0,                Peipei%Pang%NULL%2,                Peipei%Pang%NULL%0,                Wenbin%Ji%1224190004@qq.com%2,                Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                 Zhenyu%Pan%NULL%2,                 Yunbao%Pan%NULL%2,                 Qiaoling%Deng%NULL%2,                 Liangjun%Chen%NULL%2,                 Jin%Li%NULL%2,                 Yirong%Li%NULL%4,                 Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                  W.% Jiang%null%1,                  Q.% He%null%1,                  C.% Wang%null%2,                  B.% Wang%null%2,                  P.% Zhou%null%1,                  N.% Dong%null%1,                  Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                 Pingzheng%Mo%NULL%2,                 Yu%Xiao%NULL%2,                 Oiu%Zhao%NULL%1,                 Yongxi%Zhang%NULL%4,                 Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                 Owen Tak-Yin%Tsang%NULL%1,                 Wai-Shing%Leung%NULL%1,                 Anthony Raymond%Tam%NULL%1,                 Tak-Chiu%Wu%NULL%1,                 David Christopher%Lung%NULL%1,                 Cyril Chik-Yan%Yip%NULL%1,                 Jian-Piao%Cai%NULL%2,                 Jacky Man-Chun%Chan%NULL%1,                 Thomas Shiu-Hong%Chik%NULL%1,                 Daphne Pui-Ling%Lau%NULL%1,                 Chris Yau-Chung%Choi%NULL%1,                 Lin-Lei%Chen%NULL%1,                 Wan-Mui%Chan%NULL%1,                 Kwok-Hung%Chan%NULL%2,                 Jonathan Daniel%Ip%NULL%1,                 Anthony Chin-Ki%Ng%NULL%1,                 Rosana Wing-Shan%Poon%NULL%1,                 Cui-Ting%Luo%NULL%1,                 Vincent Chi-Chung%Cheng%NULL%1,                 Jasper Fuk-Woo%Chan%NULL%3,                 Ivan Fan-Ngai%Hung%NULL%2,                 Zhiwei%Chen%NULL%1,                 Honglin%Chen%NULL%1,                 Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,        Qi%Zhang%null%1,        Jiwan%Ge%null%1,        Ruoke%Wang%null%1,        Jing%Sun%null%1,        Xiangyang%Ge%null%1,        Jiazhen%Yu%null%1,        Sisi%Shan%null%1,        Bing%Zhou%null%1,        Shuo%Song%null%1,        Xian%Tang%null%1,        Jinfang%Yu%null%1,        Jun%Lan%null%1,        Jing%Yuan%null%0,        Haiyan%Wang%null%1,        Juanjuan%Zhao%null%1,        Shuye%Zhang%null%1,        Youchun%Wang%null%1,        Xuanling%Shi%null%1,        Lei%Liu%null%0,        Jincun%Zhao%null%1,        Xinquan%Wang%null%1,        Zheng%Zhang%null%0,        Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                 Guillaume%Carissimo%NULL%1,                 Bei%Wang%NULL%2,                 Bei%Wang%NULL%0,                 Siti Naqiah%Amrun%NULL%1,                 Cheryl Yi-Pin%Lee%NULL%1,                 Rhonda Sin-Ling%Chee%NULL%1,                 Siew-Wai%Fong%NULL%1,                 Nicholas Kim-Wah%Yeo%NULL%1,                 Wen-Hsin%Lee%NULL%1,                 Anthony%Torres-Ruesta%NULL%1,                 Yee-Sin%Leo%NULL%2,                 Yee-Sin%Leo%NULL%0,                 Mark I-Cheng%Chen%NULL%1,                 Seow-Yen%Tan%NULL%1,                 Louis Yi Ann%Chai%NULL%1,                 Shirin%Kalimuddin%NULL%1,                 Shirley Seah Gek%Kheng%NULL%1,                 Siew-Yee%Thien%NULL%1,                 Barnaby Edward%Young%NULL%2,                 David C.%Lye%NULL%1,                 Brendon John%Hanson%NULL%1,                 Cheng-I%Wang%NULL%1,                 Laurent%Renia%NULL%1,                 Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                 Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                 Rong-Hui%Du%NULL%1,                 Bei%Li%NULL%1,                 Xiao-Shuang%Zheng%NULL%1,                 Xing-Lou%Yang%NULL%1,                 Ben%Hu%NULL%1,                 Yan-Yi%Wang%NULL%1,                 Geng-Fu%Xiao%NULL%1,                 Bing%Yan%NULL%1,                 Zheng-Li%Shi%NULL%1,                 Peng%Zhou%NULL%2,                 Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,        Daniel%Stadlbauer%null%1,        Shirin%Strohmeier%null%1,        Thi H. O.%Nguyen%null%1,        Veronika%Chromikova%null%1,        Meagan%McMahon%null%1,        Kaijun%Jiang%null%1,        Guha Asthagiri%Arunkumar%null%1,        Denise%Jurczyszak%null%1,        Jose%Polanco%null%1,        Maria%Bermudez-Gonzalez%null%1,        Giulio%Kleiner%null%1,        Teresa%Aydillo%null%1,        Lisa%Miorin%null%1,        Daniel S.%Fierer%null%1,        Luz Amarilis%Lugo%null%1,        Erna Milunka%Kojic%null%1,        Jonathan%Stoever%null%1,        Sean T. H.%Liu%null%1,        Charlotte%Cunningham-Rundles%null%1,        Philip L.%Felgner%null%1,        Thomas%Moran%null%1,        Adolfo%García-Sastre%null%1,        Daniel%Caplivski%null%1,        Allen C.%Cheng%null%1,        Katherine%Kedzierska%null%1,        Olli%Vapalahti%null%1,        Jussi M.%Hepojoki%null%1,        Viviana%Simon%null%1,        Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                 Huangqi%Zhang%NULL%2,                 Huangqi%Zhang%NULL%0,                 Jicheng%Xie%NULL%2,                 Jicheng%Xie%NULL%0,                 Minjie%Lin%NULL%2,                 Minjie%Lin%NULL%0,                 Lingjun%Ying%NULL%2,                 Lingjun%Ying%NULL%0,                 Peipei%Pang%NULL%2,                 Peipei%Pang%NULL%0,                 Wenbin%Ji%1224190004@qq.com%2,                 Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1064,7 +1118,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1093,7 +1147,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1122,7 +1176,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1151,7 +1205,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1180,7 +1234,7 @@
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1209,7 +1263,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1238,7 +1292,7 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1267,7 +1321,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="229">
   <si>
     <t>Doi</t>
   </si>
@@ -747,6 +747,33 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,                 Huangqi%Zhang%NULL%2,                 Huangqi%Zhang%NULL%0,                 Jicheng%Xie%NULL%2,                 Jicheng%Xie%NULL%0,                 Minjie%Lin%NULL%2,                 Minjie%Lin%NULL%0,                 Lingjun%Ying%NULL%2,                 Lingjun%Ying%NULL%0,                 Peipei%Pang%NULL%2,                 Peipei%Pang%NULL%0,                 Wenbin%Ji%1224190004@qq.com%2,                 Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                  Zhenyu%Pan%NULL%2,                  Yunbao%Pan%NULL%2,                  Qiaoling%Deng%NULL%2,                  Liangjun%Chen%NULL%2,                  Jin%Li%NULL%2,                  Yirong%Li%NULL%4,                  Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                   W.% Jiang%null%1,                   Q.% He%null%1,                   C.% Wang%null%2,                   B.% Wang%null%2,                   P.% Zhou%null%1,                   N.% Dong%null%1,                   Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%2,                  Pingzheng%Mo%NULL%2,                  Yu%Xiao%NULL%2,                  Oiu%Zhao%NULL%1,                  Yongxi%Zhang%NULL%4,                  Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%3,                  Owen Tak-Yin%Tsang%NULL%1,                  Wai-Shing%Leung%NULL%1,                  Anthony Raymond%Tam%NULL%1,                  Tak-Chiu%Wu%NULL%1,                  David Christopher%Lung%NULL%1,                  Cyril Chik-Yan%Yip%NULL%1,                  Jian-Piao%Cai%NULL%2,                  Jacky Man-Chun%Chan%NULL%1,                  Thomas Shiu-Hong%Chik%NULL%1,                  Daphne Pui-Ling%Lau%NULL%1,                  Chris Yau-Chung%Choi%NULL%1,                  Lin-Lei%Chen%NULL%1,                  Wan-Mui%Chan%NULL%1,                  Kwok-Hung%Chan%NULL%2,                  Jonathan Daniel%Ip%NULL%1,                  Anthony Chin-Ki%Ng%NULL%1,                  Rosana Wing-Shan%Poon%NULL%1,                  Cui-Ting%Luo%NULL%1,                  Vincent Chi-Chung%Cheng%NULL%1,                  Jasper Fuk-Woo%Chan%NULL%3,                  Ivan Fan-Ngai%Hung%NULL%2,                  Zhiwei%Chen%NULL%1,                  Honglin%Chen%NULL%1,                  Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,         Qi%Zhang%null%1,         Jiwan%Ge%null%1,         Ruoke%Wang%null%1,         Jing%Sun%null%1,         Xiangyang%Ge%null%1,         Jiazhen%Yu%null%1,         Sisi%Shan%null%1,         Bing%Zhou%null%1,         Shuo%Song%null%1,         Xian%Tang%null%1,         Jinfang%Yu%null%1,         Jun%Lan%null%1,         Jing%Yuan%null%0,         Haiyan%Wang%null%1,         Juanjuan%Zhao%null%1,         Shuye%Zhang%null%1,         Youchun%Wang%null%1,         Xuanling%Shi%null%1,         Lei%Liu%null%0,         Jincun%Zhao%null%1,         Xinquan%Wang%null%1,         Zheng%Zhang%null%0,         Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                  Guillaume%Carissimo%NULL%1,                  Bei%Wang%NULL%2,                  Bei%Wang%NULL%0,                  Siti Naqiah%Amrun%NULL%1,                  Cheryl Yi-Pin%Lee%NULL%1,                  Rhonda Sin-Ling%Chee%NULL%1,                  Siew-Wai%Fong%NULL%1,                  Nicholas Kim-Wah%Yeo%NULL%1,                  Wen-Hsin%Lee%NULL%1,                  Anthony%Torres-Ruesta%NULL%1,                  Yee-Sin%Leo%NULL%2,                  Yee-Sin%Leo%NULL%0,                  Mark I-Cheng%Chen%NULL%1,                  Seow-Yen%Tan%NULL%1,                  Louis Yi Ann%Chai%NULL%1,                  Shirin%Kalimuddin%NULL%1,                  Shirley Seah Gek%Kheng%NULL%1,                  Siew-Yee%Thien%NULL%1,                  Barnaby Edward%Young%NULL%2,                  David C.%Lye%NULL%1,                  Brendon John%Hanson%NULL%1,                  Cheng-I%Wang%NULL%1,                  Laurent%Renia%NULL%1,                  Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                  Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                  Rong-Hui%Du%NULL%1,                  Bei%Li%NULL%1,                  Xiao-Shuang%Zheng%NULL%1,                  Xing-Lou%Yang%NULL%1,                  Ben%Hu%NULL%1,                  Yan-Yi%Wang%NULL%1,                  Geng-Fu%Xiao%NULL%1,                  Bing%Yan%NULL%1,                  Zheng-Li%Shi%NULL%1,                  Peng%Zhou%NULL%2,                  Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,         Daniel%Stadlbauer%null%1,         Shirin%Strohmeier%null%1,         Thi H. O.%Nguyen%null%1,         Veronika%Chromikova%null%1,         Meagan%McMahon%null%1,         Kaijun%Jiang%null%1,         Guha Asthagiri%Arunkumar%null%1,         Denise%Jurczyszak%null%1,         Jose%Polanco%null%1,         Maria%Bermudez-Gonzalez%null%1,         Giulio%Kleiner%null%1,         Teresa%Aydillo%null%1,         Lisa%Miorin%null%1,         Daniel S.%Fierer%null%1,         Luz Amarilis%Lugo%null%1,         Erna Milunka%Kojic%null%1,         Jonathan%Stoever%null%1,         Sean T. H.%Liu%null%1,         Charlotte%Cunningham-Rundles%null%1,         Philip L.%Felgner%null%1,         Thomas%Moran%null%1,         Adolfo%García-Sastre%null%1,         Daniel%Caplivski%null%1,         Allen C.%Cheng%null%1,         Katherine%Kedzierska%null%1,         Olli%Vapalahti%null%1,         Jussi M.%Hepojoki%null%1,         Viviana%Simon%null%1,         Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                  Huangqi%Zhang%NULL%2,                  Huangqi%Zhang%NULL%0,                  Jicheng%Xie%NULL%2,                  Jicheng%Xie%NULL%0,                  Minjie%Lin%NULL%2,                  Minjie%Lin%NULL%0,                  Lingjun%Ying%NULL%2,                  Lingjun%Ying%NULL%0,                  Peipei%Pang%NULL%2,                  Peipei%Pang%NULL%0,                  Wenbin%Ji%1224190004@qq.com%2,                  Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1116,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1118,7 +1145,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1147,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1176,7 +1203,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1205,7 +1232,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1234,7 +1261,7 @@
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1263,7 +1290,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1292,7 +1319,7 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1321,7 +1348,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="243">
   <si>
     <t>Doi</t>
   </si>
@@ -774,6 +774,48 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,                  Huangqi%Zhang%NULL%2,                  Huangqi%Zhang%NULL%0,                  Jicheng%Xie%NULL%2,                  Jicheng%Xie%NULL%0,                  Minjie%Lin%NULL%2,                  Minjie%Lin%NULL%0,                  Lingjun%Ying%NULL%2,                  Lingjun%Ying%NULL%0,                  Peipei%Pang%NULL%2,                  Peipei%Pang%NULL%0,                  Wenbin%Ji%1224190004@qq.com%2,                  Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                   Zhenyu%Pan%NULL%2,                   Yunbao%Pan%NULL%2,                   Qiaoling%Deng%NULL%2,                   Liangjun%Chen%NULL%2,                   Jin%Li%NULL%2,                   Yirong%Li%NULL%4,                   Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                    W.% Jiang%null%1,                    Q.% He%null%1,                    C.% Wang%null%2,                    B.% Wang%null%2,                    P.% Zhou%null%1,                    N.% Dong%null%1,                    Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                   Pingzheng%Mo%NULL%2,                   Yu%Xiao%NULL%2,                   Oiu%Zhao%NULL%1,                   Yongxi%Zhang%NULL%4,                   Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                   Owen Tak-Yin%Tsang%NULL%1,                   Wai-Shing%Leung%NULL%1,                   Anthony Raymond%Tam%NULL%1,                   Tak-Chiu%Wu%NULL%1,                   David Christopher%Lung%NULL%1,                   Cyril Chik-Yan%Yip%NULL%1,                   Jian-Piao%Cai%NULL%2,                   Jacky Man-Chun%Chan%NULL%1,                   Thomas Shiu-Hong%Chik%NULL%1,                   Daphne Pui-Ling%Lau%NULL%1,                   Chris Yau-Chung%Choi%NULL%1,                   Lin-Lei%Chen%NULL%1,                   Wan-Mui%Chan%NULL%1,                   Kwok-Hung%Chan%NULL%2,                   Jonathan Daniel%Ip%NULL%1,                   Anthony Chin-Ki%Ng%NULL%1,                   Rosana Wing-Shan%Poon%NULL%1,                   Cui-Ting%Luo%NULL%1,                   Vincent Chi-Chung%Cheng%NULL%1,                   Jasper Fuk-Woo%Chan%NULL%3,                   Ivan Fan-Ngai%Hung%NULL%2,                   Zhiwei%Chen%NULL%1,                   Honglin%Chen%NULL%1,                   Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,          Qi%Zhang%null%1,          Jiwan%Ge%null%1,          Ruoke%Wang%null%1,          Jing%Sun%null%1,          Xiangyang%Ge%null%1,          Jiazhen%Yu%null%1,          Sisi%Shan%null%1,          Bing%Zhou%null%1,          Shuo%Song%null%1,          Xian%Tang%null%1,          Jinfang%Yu%null%1,          Jun%Lan%null%1,          Jing%Yuan%null%1,          Haiyan%Wang%null%1,          Juanjuan%Zhao%null%1,          Shuye%Zhang%null%1,          Youchun%Wang%null%1,          Xuanling%Shi%null%1,          Lei%Liu%null%1,          Jincun%Zhao%null%1,          Xinquan%Wang%null%1,          Zheng%Zhang%null%1,          Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                   Guillaume%Carissimo%NULL%1,                   Bei%Wang%NULL%2,                   Bei%Wang%NULL%0,                   Siti Naqiah%Amrun%NULL%1,                   Cheryl Yi-Pin%Lee%NULL%1,                   Rhonda Sin-Ling%Chee%NULL%1,                   Siew-Wai%Fong%NULL%1,                   Nicholas Kim-Wah%Yeo%NULL%1,                   Wen-Hsin%Lee%NULL%1,                   Anthony%Torres-Ruesta%NULL%1,                   Yee-Sin%Leo%NULL%2,                   Yee-Sin%Leo%NULL%0,                   Mark I-Cheng%Chen%NULL%1,                   Seow-Yen%Tan%NULL%1,                   Louis Yi Ann%Chai%NULL%1,                   Shirin%Kalimuddin%NULL%1,                   Shirley Seah Gek%Kheng%NULL%1,                   Siew-Yee%Thien%NULL%1,                   Barnaby Edward%Young%NULL%2,                   David C.%Lye%NULL%1,                   Brendon John%Hanson%NULL%1,                   Cheng-I%Wang%NULL%1,                   Laurent%Renia%NULL%1,                   Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                   Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                   Rong-Hui%Du%NULL%1,                   Bei%Li%NULL%1,                   Xiao-Shuang%Zheng%NULL%1,                   Xing-Lou%Yang%NULL%1,                   Ben%Hu%NULL%1,                   Yan-Yi%Wang%NULL%1,                   Geng-Fu%Xiao%NULL%1,                   Bing%Yan%NULL%1,                   Zheng-Li%Shi%NULL%1,                   Peng%Zhou%NULL%2,                   Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,          Daniel%Stadlbauer%null%1,          Shirin%Strohmeier%null%1,          Thi H. O.%Nguyen%null%1,          Veronika%Chromikova%null%1,          Meagan%McMahon%null%1,          Kaijun%Jiang%null%1,          Guha Asthagiri%Arunkumar%null%1,          Denise%Jurczyszak%null%1,          Jose%Polanco%null%1,          Maria%Bermudez-Gonzalez%null%1,          Giulio%Kleiner%null%1,          Teresa%Aydillo%null%1,          Lisa%Miorin%null%1,          Daniel S.%Fierer%null%1,          Luz Amarilis%Lugo%null%1,          Erna Milunka%Kojic%null%1,          Jonathan%Stoever%null%1,          Sean T. H.%Liu%null%1,          Charlotte%Cunningham-Rundles%null%1,          Philip L.%Felgner%null%1,          Thomas%Moran%null%1,          Adolfo%García-Sastre%null%1,          Daniel%Caplivski%null%1,          Allen C.%Cheng%null%1,          Katherine%Kedzierska%null%1,          Olli%Vapalahti%null%1,          Jussi M.%Hepojoki%null%1,          Viviana%Simon%null%1,          Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                   Huangqi%Zhang%NULL%2,                   Huangqi%Zhang%NULL%0,                   Jicheng%Xie%NULL%2,                   Jicheng%Xie%NULL%0,                   Minjie%Lin%NULL%2,                   Minjie%Lin%NULL%0,                   Lingjun%Ying%NULL%2,                   Lingjun%Ying%NULL%0,                   Peipei%Pang%NULL%2,                   Peipei%Pang%NULL%0,                   Wenbin%Ji%1224190004@qq.com%2,                   Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1158,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1128,7 +1170,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
@@ -1145,7 +1187,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1157,7 +1199,7 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
@@ -1174,7 +1216,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1186,7 +1228,7 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -1203,7 +1245,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1215,7 +1257,7 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -1232,7 +1274,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1244,7 +1286,7 @@
         <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
@@ -1261,7 +1303,7 @@
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1273,7 +1315,7 @@
         <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8">
@@ -1290,7 +1332,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1302,7 +1344,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
@@ -1319,7 +1361,7 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1331,7 +1373,7 @@
         <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
@@ -1348,7 +1390,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1360,7 +1402,7 @@
         <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="252">
   <si>
     <t>Doi</t>
   </si>
@@ -816,6 +816,33 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,                   Huangqi%Zhang%NULL%2,                   Huangqi%Zhang%NULL%0,                   Jicheng%Xie%NULL%2,                   Jicheng%Xie%NULL%0,                   Minjie%Lin%NULL%2,                   Minjie%Lin%NULL%0,                   Lingjun%Ying%NULL%2,                   Lingjun%Ying%NULL%0,                   Peipei%Pang%NULL%2,                   Peipei%Pang%NULL%0,                   Wenbin%Ji%1224190004@qq.com%2,                   Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                    Zhenyu%Pan%NULL%2,                    Yunbao%Pan%NULL%2,                    Qiaoling%Deng%NULL%2,                    Liangjun%Chen%NULL%2,                    Jin%Li%NULL%2,                    Yirong%Li%NULL%4,                    Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%2,                     W.% Jiang%null%1,                     Q.% He%null%1,                     C.% Wang%null%2,                     B.% Wang%null%2,                     P.% Zhou%null%1,                     N.% Dong%null%1,                     Q. % Tong%null%1,  Y.%Wang%null%0,  W.% Jiang%null%1,  Q.% He%null%1,  C.% Wang%null%2,  B.% Wang%null%2,  P.% Zhou%null%2,  N.% Dong%null%1,  Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                    Pingzheng%Mo%NULL%2,                    Yu%Xiao%NULL%2,                    Oiu%Zhao%NULL%1,                    Yongxi%Zhang%NULL%4,                    Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                    Owen Tak-Yin%Tsang%NULL%1,                    Wai-Shing%Leung%NULL%1,                    Anthony Raymond%Tam%NULL%1,                    Tak-Chiu%Wu%NULL%1,                    David Christopher%Lung%NULL%1,                    Cyril Chik-Yan%Yip%NULL%1,                    Jian-Piao%Cai%NULL%2,                    Jacky Man-Chun%Chan%NULL%1,                    Thomas Shiu-Hong%Chik%NULL%1,                    Daphne Pui-Ling%Lau%NULL%1,                    Chris Yau-Chung%Choi%NULL%1,                    Lin-Lei%Chen%NULL%1,                    Wan-Mui%Chan%NULL%1,                    Kwok-Hung%Chan%NULL%2,                    Jonathan Daniel%Ip%NULL%1,                    Anthony Chin-Ki%Ng%NULL%1,                    Rosana Wing-Shan%Poon%NULL%1,                    Cui-Ting%Luo%NULL%1,                    Vincent Chi-Chung%Cheng%NULL%1,                    Jasper Fuk-Woo%Chan%NULL%3,                    Ivan Fan-Ngai%Hung%NULL%2,                    Zhiwei%Chen%NULL%1,                    Honglin%Chen%NULL%1,                    Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,           Qi%Zhang%null%1,           Jiwan%Ge%null%1,           Ruoke%Wang%null%1,           Jing%Sun%null%1,           Xiangyang%Ge%null%1,           Jiazhen%Yu%null%1,           Sisi%Shan%null%1,           Bing%Zhou%null%1,           Shuo%Song%null%1,           Xian%Tang%null%1,           Jinfang%Yu%null%1,           Jun%Lan%null%1,           Jing%Yuan%null%1,           Haiyan%Wang%null%1,           Juanjuan%Zhao%null%1,           Shuye%Zhang%null%1,           Youchun%Wang%null%1,           Xuanling%Shi%null%1,           Lei%Liu%null%2,           Jincun%Zhao%null%1,           Xinquan%Wang%null%1,           Zheng%Zhang%null%1,           Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                    Guillaume%Carissimo%NULL%1,                    Bei%Wang%NULL%2,                    Bei%Wang%NULL%0,                    Siti Naqiah%Amrun%NULL%1,                    Cheryl Yi-Pin%Lee%NULL%1,                    Rhonda Sin-Ling%Chee%NULL%1,                    Siew-Wai%Fong%NULL%1,                    Nicholas Kim-Wah%Yeo%NULL%1,                    Wen-Hsin%Lee%NULL%1,                    Anthony%Torres-Ruesta%NULL%1,                    Yee-Sin%Leo%NULL%2,                    Yee-Sin%Leo%NULL%0,                    Mark I-Cheng%Chen%NULL%1,                    Seow-Yen%Tan%NULL%1,                    Louis Yi Ann%Chai%NULL%1,                    Shirin%Kalimuddin%NULL%1,                    Shirley Seah Gek%Kheng%NULL%1,                    Siew-Yee%Thien%NULL%1,                    Barnaby Edward%Young%NULL%2,                    David C.%Lye%NULL%1,                    Brendon John%Hanson%NULL%1,                    Cheng-I%Wang%NULL%1,                    Laurent%Renia%NULL%1,                    Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                    Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                    Rong-Hui%Du%NULL%1,                    Bei%Li%NULL%1,                    Xiao-Shuang%Zheng%NULL%1,                    Xing-Lou%Yang%NULL%1,                    Ben%Hu%NULL%1,                    Yan-Yi%Wang%NULL%1,                    Geng-Fu%Xiao%NULL%1,                    Bing%Yan%NULL%1,                    Zheng-Li%Shi%NULL%1,                    Peng%Zhou%NULL%2,                    Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,           Daniel%Stadlbauer%null%1,           Shirin%Strohmeier%null%1,           Thi H. O.%Nguyen%null%1,           Veronika%Chromikova%null%1,           Meagan%McMahon%null%1,           Kaijun%Jiang%null%1,           Guha Asthagiri%Arunkumar%null%1,           Denise%Jurczyszak%null%1,           Jose%Polanco%null%1,           Maria%Bermudez-Gonzalez%null%1,           Giulio%Kleiner%null%1,           Teresa%Aydillo%null%1,           Lisa%Miorin%null%1,           Daniel S.%Fierer%null%1,           Luz Amarilis%Lugo%null%1,           Erna Milunka%Kojic%null%1,           Jonathan%Stoever%null%1,           Sean T. H.%Liu%null%1,           Charlotte%Cunningham-Rundles%null%1,           Philip L.%Felgner%null%1,           Thomas%Moran%null%1,           Adolfo%García-Sastre%null%1,           Daniel%Caplivski%null%1,           Allen C.%Cheng%null%1,           Katherine%Kedzierska%null%1,           Olli%Vapalahti%null%1,           Jussi M.%Hepojoki%null%1,           Viviana%Simon%null%1,           Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                    Huangqi%Zhang%NULL%2,                    Huangqi%Zhang%NULL%0,                    Jicheng%Xie%NULL%2,                    Jicheng%Xie%NULL%0,                    Minjie%Lin%NULL%2,                    Minjie%Lin%NULL%0,                    Lingjun%Ying%NULL%2,                    Lingjun%Ying%NULL%0,                    Peipei%Pang%NULL%2,                    Peipei%Pang%NULL%0,                    Wenbin%Ji%1224190004@qq.com%2,                    Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1187,7 +1214,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1216,7 +1243,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1245,7 +1272,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1274,7 +1301,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1303,7 +1330,7 @@
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1332,7 +1359,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1361,7 +1388,7 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1390,7 +1417,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="298">
   <si>
     <t>Doi</t>
   </si>
@@ -843,6 +843,144 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,                    Huangqi%Zhang%NULL%2,                    Huangqi%Zhang%NULL%0,                    Jicheng%Xie%NULL%2,                    Jicheng%Xie%NULL%0,                    Minjie%Lin%NULL%2,                    Minjie%Lin%NULL%0,                    Lingjun%Ying%NULL%2,                    Lingjun%Ying%NULL%0,                    Peipei%Pang%NULL%2,                    Peipei%Pang%NULL%0,                    Wenbin%Ji%1224190004@qq.com%2,                    Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%3,                     Zhenyu%Pan%NULL%2,                     Yunbao%Pan%NULL%2,                     Qiaoling%Deng%NULL%2,                     Liangjun%Chen%NULL%2,                     Jin%Li%NULL%2,                     Yirong%Li%NULL%4,                     Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                      W.% Jiang%null%1,                      Q.% He%null%1,                      C.% Wang%null%2,                      B.% Wang%null%2,                      P.% Zhou%null%1,                      N.% Dong%null%1,                      Q. % Tong%null%1,   Y.%Wang%null%1,   W.% Jiang%null%1,   Q.% He%null%1,   C.% Wang%null%2,   B.% Wang%null%2,   P.% Zhou%null%2,   N.% Dong%null%1,   Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                     Pingzheng%Mo%NULL%2,                     Yu%Xiao%NULL%2,                     Oiu%Zhao%NULL%1,                     Yongxi%Zhang%NULL%4,                     Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                     Owen Tak-Yin%Tsang%NULL%1,                     Wai-Shing%Leung%NULL%1,                     Anthony Raymond%Tam%NULL%1,                     Tak-Chiu%Wu%NULL%1,                     David Christopher%Lung%NULL%1,                     Cyril Chik-Yan%Yip%NULL%1,                     Jian-Piao%Cai%NULL%2,                     Jacky Man-Chun%Chan%NULL%1,                     Thomas Shiu-Hong%Chik%NULL%1,                     Daphne Pui-Ling%Lau%NULL%1,                     Chris Yau-Chung%Choi%NULL%1,                     Lin-Lei%Chen%NULL%1,                     Wan-Mui%Chan%NULL%1,                     Kwok-Hung%Chan%NULL%2,                     Jonathan Daniel%Ip%NULL%1,                     Anthony Chin-Ki%Ng%NULL%1,                     Rosana Wing-Shan%Poon%NULL%1,                     Cui-Ting%Luo%NULL%1,                     Vincent Chi-Chung%Cheng%NULL%1,                     Jasper Fuk-Woo%Chan%NULL%3,                     Ivan Fan-Ngai%Hung%NULL%2,                     Zhiwei%Chen%NULL%1,                     Honglin%Chen%NULL%1,                     Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,            Qi%Zhang%null%1,            Jiwan%Ge%null%1,            Ruoke%Wang%null%1,            Jing%Sun%null%1,            Xiangyang%Ge%null%1,            Jiazhen%Yu%null%1,            Sisi%Shan%null%1,            Bing%Zhou%null%1,            Shuo%Song%null%1,            Xian%Tang%null%1,            Jinfang%Yu%null%1,            Jun%Lan%null%1,            Jing%Yuan%null%1,            Haiyan%Wang%null%1,            Juanjuan%Zhao%null%1,            Shuye%Zhang%null%1,            Youchun%Wang%null%1,            Xuanling%Shi%null%1,            Lei%Liu%null%1,            Jincun%Zhao%null%1,            Xinquan%Wang%null%1,            Zheng%Zhang%null%1,            Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                     Guillaume%Carissimo%NULL%1,                     Bei%Wang%NULL%2,                     Bei%Wang%NULL%0,                     Siti Naqiah%Amrun%NULL%1,                     Cheryl Yi-Pin%Lee%NULL%1,                     Rhonda Sin-Ling%Chee%NULL%1,                     Siew-Wai%Fong%NULL%1,                     Nicholas Kim-Wah%Yeo%NULL%1,                     Wen-Hsin%Lee%NULL%1,                     Anthony%Torres-Ruesta%NULL%1,                     Yee-Sin%Leo%NULL%2,                     Yee-Sin%Leo%NULL%0,                     Mark I-Cheng%Chen%NULL%1,                     Seow-Yen%Tan%NULL%1,                     Louis Yi Ann%Chai%NULL%1,                     Shirin%Kalimuddin%NULL%1,                     Shirley Seah Gek%Kheng%NULL%1,                     Siew-Yee%Thien%NULL%1,                     Barnaby Edward%Young%NULL%2,                     David C.%Lye%NULL%1,                     Brendon John%Hanson%NULL%1,                     Cheng-I%Wang%NULL%1,                     Laurent%Renia%NULL%1,                     Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                     Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%2,                     Rong-Hui%Du%NULL%1,                     Bei%Li%NULL%1,                     Xiao-Shuang%Zheng%NULL%1,                     Xing-Lou%Yang%NULL%1,                     Ben%Hu%NULL%1,                     Yan-Yi%Wang%NULL%1,                     Geng-Fu%Xiao%NULL%1,                     Bing%Yan%NULL%1,                     Zheng-Li%Shi%NULL%1,                     Peng%Zhou%NULL%2,                     Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,            Daniel%Stadlbauer%null%1,            Shirin%Strohmeier%null%1,            Thi H. O.%Nguyen%null%1,            Veronika%Chromikova%null%1,            Meagan%McMahon%null%1,            Kaijun%Jiang%null%1,            Guha Asthagiri%Arunkumar%null%1,            Denise%Jurczyszak%null%1,            Jose%Polanco%null%1,            Maria%Bermudez-Gonzalez%null%1,            Giulio%Kleiner%null%1,            Teresa%Aydillo%null%1,            Lisa%Miorin%null%1,            Daniel S.%Fierer%null%1,            Luz Amarilis%Lugo%null%1,            Erna Milunka%Kojic%null%1,            Jonathan%Stoever%null%1,            Sean T. H.%Liu%null%1,            Charlotte%Cunningham-Rundles%null%1,            Philip L.%Felgner%null%1,            Thomas%Moran%null%1,            Adolfo%García-Sastre%null%1,            Daniel%Caplivski%null%1,            Allen C.%Cheng%null%1,            Katherine%Kedzierska%null%1,            Olli%Vapalahti%null%1,            Jussi M.%Hepojoki%null%1,            Viviana%Simon%null%1,            Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                     Huangqi%Zhang%NULL%2,                     Huangqi%Zhang%NULL%0,                     Jicheng%Xie%NULL%2,                     Jicheng%Xie%NULL%0,                     Minjie%Lin%NULL%2,                     Minjie%Lin%NULL%0,                     Lingjun%Ying%NULL%2,                     Lingjun%Ying%NULL%0,                     Peipei%Pang%NULL%2,                     Peipei%Pang%NULL%0,                     Wenbin%Ji%1224190004@qq.com%2,                     Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                      Zhenyu%Pan%NULL%2,                      Yunbao%Pan%NULL%2,                      Qiaoling%Deng%NULL%2,                      Liangjun%Chen%NULL%2,                      Jin%Li%NULL%2,                      Yirong%Li%NULL%4,                      Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                       W.% Jiang%null%1,                       Q.% He%null%1,                       C.% Wang%null%2,                       B.% Wang%null%2,                       P.% Zhou%null%1,                       N.% Dong%null%1,                       Q. % Tong%null%1,    Y.%Wang%null%1,    W.% Jiang%null%1,    Q.% He%null%1,    C.% Wang%null%2,    B.% Wang%null%2,    P.% Zhou%null%2,    N.% Dong%null%1,    Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                      Pingzheng%Mo%NULL%2,                      Yu%Xiao%NULL%2,                      Oiu%Zhao%NULL%1,                      Yongxi%Zhang%NULL%4,                      Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                      Owen Tak-Yin%Tsang%NULL%1,                      Wai-Shing%Leung%NULL%1,                      Anthony Raymond%Tam%NULL%1,                      Tak-Chiu%Wu%NULL%1,                      David Christopher%Lung%NULL%1,                      Cyril Chik-Yan%Yip%NULL%1,                      Jian-Piao%Cai%NULL%2,                      Jacky Man-Chun%Chan%NULL%1,                      Thomas Shiu-Hong%Chik%NULL%1,                      Daphne Pui-Ling%Lau%NULL%1,                      Chris Yau-Chung%Choi%NULL%1,                      Lin-Lei%Chen%NULL%1,                      Wan-Mui%Chan%NULL%1,                      Kwok-Hung%Chan%NULL%2,                      Jonathan Daniel%Ip%NULL%1,                      Anthony Chin-Ki%Ng%NULL%1,                      Rosana Wing-Shan%Poon%NULL%1,                      Cui-Ting%Luo%NULL%1,                      Vincent Chi-Chung%Cheng%NULL%1,                      Jasper Fuk-Woo%Chan%NULL%3,                      Ivan Fan-Ngai%Hung%NULL%2,                      Zhiwei%Chen%NULL%1,                      Honglin%Chen%NULL%1,                      Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,             Qi%Zhang%null%1,             Jiwan%Ge%null%1,             Ruoke%Wang%null%1,             Jing%Sun%null%1,             Xiangyang%Ge%null%1,             Jiazhen%Yu%null%1,             Sisi%Shan%null%1,             Bing%Zhou%null%1,             Shuo%Song%null%1,             Xian%Tang%null%1,             Jinfang%Yu%null%1,             Jun%Lan%null%1,             Jing%Yuan%null%1,             Haiyan%Wang%null%1,             Juanjuan%Zhao%null%1,             Shuye%Zhang%null%1,             Youchun%Wang%null%1,             Xuanling%Shi%null%1,             Lei%Liu%null%1,             Jincun%Zhao%null%1,             Xinquan%Wang%null%1,             Zheng%Zhang%null%1,             Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                      Guillaume%Carissimo%NULL%1,                      Bei%Wang%NULL%2,                      Bei%Wang%NULL%0,                      Siti Naqiah%Amrun%NULL%1,                      Cheryl Yi-Pin%Lee%NULL%1,                      Rhonda Sin-Ling%Chee%NULL%1,                      Siew-Wai%Fong%NULL%1,                      Nicholas Kim-Wah%Yeo%NULL%1,                      Wen-Hsin%Lee%NULL%1,                      Anthony%Torres-Ruesta%NULL%1,                      Yee-Sin%Leo%NULL%2,                      Yee-Sin%Leo%NULL%0,                      Mark I-Cheng%Chen%NULL%1,                      Seow-Yen%Tan%NULL%1,                      Louis Yi Ann%Chai%NULL%1,                      Shirin%Kalimuddin%NULL%1,                      Shirley Seah Gek%Kheng%NULL%1,                      Siew-Yee%Thien%NULL%1,                      Barnaby Edward%Young%NULL%2,                      David C.%Lye%NULL%1,                      Brendon John%Hanson%NULL%1,                      Cheng-I%Wang%NULL%1,                      Laurent%Renia%NULL%1,                      Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                      Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                      Rong-Hui%Du%NULL%1,                      Bei%Li%NULL%1,                      Xiao-Shuang%Zheng%NULL%1,                      Xing-Lou%Yang%NULL%1,                      Ben%Hu%NULL%1,                      Yan-Yi%Wang%NULL%1,                      Geng-Fu%Xiao%NULL%1,                      Bing%Yan%NULL%1,                      Zheng-Li%Shi%NULL%1,                      Peng%Zhou%NULL%2,                      Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,             Daniel%Stadlbauer%null%1,             Shirin%Strohmeier%null%1,             Thi H. O.%Nguyen%null%1,             Veronika%Chromikova%null%1,             Meagan%McMahon%null%1,             Kaijun%Jiang%null%1,             Guha Asthagiri%Arunkumar%null%1,             Denise%Jurczyszak%null%1,             Jose%Polanco%null%1,             Maria%Bermudez-Gonzalez%null%1,             Giulio%Kleiner%null%1,             Teresa%Aydillo%null%1,             Lisa%Miorin%null%1,             Daniel S.%Fierer%null%1,             Luz Amarilis%Lugo%null%1,             Erna Milunka%Kojic%null%1,             Jonathan%Stoever%null%1,             Sean T. H.%Liu%null%1,             Charlotte%Cunningham-Rundles%null%1,             Philip L.%Felgner%null%1,             Thomas%Moran%null%1,             Adolfo%García-Sastre%null%1,             Daniel%Caplivski%null%1,             Allen C.%Cheng%null%1,             Katherine%Kedzierska%null%1,             Olli%Vapalahti%null%1,             Jussi M.%Hepojoki%null%1,             Viviana%Simon%null%1,             Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                      Huangqi%Zhang%NULL%2,                      Huangqi%Zhang%NULL%0,                      Jicheng%Xie%NULL%2,                      Jicheng%Xie%NULL%0,                      Minjie%Lin%NULL%2,                      Minjie%Lin%NULL%0,                      Lingjun%Ying%NULL%2,                      Lingjun%Ying%NULL%0,                      Peipei%Pang%NULL%2,                      Peipei%Pang%NULL%0,                      Wenbin%Ji%1224190004@qq.com%2,                      Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                       Zhenyu%Pan%NULL%2,                       Yunbao%Pan%NULL%2,                       Qiaoling%Deng%NULL%2,                       Liangjun%Chen%NULL%2,                       Jin%Li%NULL%2,                       Yirong%Li%NULL%4,                       Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                        W.% Jiang%null%1,                        Q.% He%null%1,                        C.% Wang%null%2,                        B.% Wang%null%2,                        P.% Zhou%null%1,                        N.% Dong%null%1,                        Q. % Tong%null%1,     Y.%Wang%null%1,     W.% Jiang%null%1,     Q.% He%null%1,     C.% Wang%null%2,     B.% Wang%null%2,     P.% Zhou%null%2,     N.% Dong%null%1,     Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                       Pingzheng%Mo%NULL%2,                       Yu%Xiao%NULL%2,                       Oiu%Zhao%NULL%1,                       Yongxi%Zhang%NULL%4,                       Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                       Owen Tak-Yin%Tsang%NULL%1,                       Wai-Shing%Leung%NULL%1,                       Anthony Raymond%Tam%NULL%1,                       Tak-Chiu%Wu%NULL%1,                       David Christopher%Lung%NULL%1,                       Cyril Chik-Yan%Yip%NULL%1,                       Jian-Piao%Cai%NULL%2,                       Jacky Man-Chun%Chan%NULL%1,                       Thomas Shiu-Hong%Chik%NULL%1,                       Daphne Pui-Ling%Lau%NULL%1,                       Chris Yau-Chung%Choi%NULL%1,                       Lin-Lei%Chen%NULL%1,                       Wan-Mui%Chan%NULL%1,                       Kwok-Hung%Chan%NULL%2,                       Jonathan Daniel%Ip%NULL%1,                       Anthony Chin-Ki%Ng%NULL%1,                       Rosana Wing-Shan%Poon%NULL%1,                       Cui-Ting%Luo%NULL%1,                       Vincent Chi-Chung%Cheng%NULL%1,                       Jasper Fuk-Woo%Chan%NULL%3,                       Ivan Fan-Ngai%Hung%NULL%2,                       Zhiwei%Chen%NULL%1,                       Honglin%Chen%NULL%1,                       Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,              Qi%Zhang%null%1,              Jiwan%Ge%null%1,              Ruoke%Wang%null%1,              Jing%Sun%null%1,              Xiangyang%Ge%null%1,              Jiazhen%Yu%null%1,              Sisi%Shan%null%1,              Bing%Zhou%null%1,              Shuo%Song%null%1,              Xian%Tang%null%1,              Jinfang%Yu%null%1,              Jun%Lan%null%1,              Jing%Yuan%null%1,              Haiyan%Wang%null%1,              Juanjuan%Zhao%null%1,              Shuye%Zhang%null%1,              Youchun%Wang%null%1,              Xuanling%Shi%null%1,              Lei%Liu%null%1,              Jincun%Zhao%null%1,              Xinquan%Wang%null%1,              Zheng%Zhang%null%1,              Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                       Guillaume%Carissimo%NULL%1,                       Bei%Wang%NULL%2,                       Bei%Wang%NULL%0,                       Siti Naqiah%Amrun%NULL%1,                       Cheryl Yi-Pin%Lee%NULL%1,                       Rhonda Sin-Ling%Chee%NULL%1,                       Siew-Wai%Fong%NULL%1,                       Nicholas Kim-Wah%Yeo%NULL%1,                       Wen-Hsin%Lee%NULL%1,                       Anthony%Torres-Ruesta%NULL%1,                       Yee-Sin%Leo%NULL%2,                       Yee-Sin%Leo%NULL%0,                       Mark I-Cheng%Chen%NULL%1,                       Seow-Yen%Tan%NULL%1,                       Louis Yi Ann%Chai%NULL%1,                       Shirin%Kalimuddin%NULL%1,                       Shirley Seah Gek%Kheng%NULL%1,                       Siew-Yee%Thien%NULL%1,                       Barnaby Edward%Young%NULL%2,                       David C.%Lye%NULL%1,                       Brendon John%Hanson%NULL%1,                       Cheng-I%Wang%NULL%1,                       Laurent%Renia%NULL%1,                       Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                       Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                       Rong-Hui%Du%NULL%1,                       Bei%Li%NULL%1,                       Xiao-Shuang%Zheng%NULL%1,                       Xing-Lou%Yang%NULL%1,                       Ben%Hu%NULL%1,                       Yan-Yi%Wang%NULL%1,                       Geng-Fu%Xiao%NULL%1,                       Bing%Yan%NULL%1,                       Zheng-Li%Shi%NULL%1,                       Peng%Zhou%NULL%2,                       Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,              Daniel%Stadlbauer%null%1,              Shirin%Strohmeier%null%1,              Thi H. O.%Nguyen%null%1,              Veronika%Chromikova%null%1,              Meagan%McMahon%null%1,              Kaijun%Jiang%null%1,              Guha Asthagiri%Arunkumar%null%1,              Denise%Jurczyszak%null%1,              Jose%Polanco%null%1,              Maria%Bermudez-Gonzalez%null%1,              Giulio%Kleiner%null%1,              Teresa%Aydillo%null%1,              Lisa%Miorin%null%1,              Daniel S.%Fierer%null%1,              Luz Amarilis%Lugo%null%1,              Erna Milunka%Kojic%null%1,              Jonathan%Stoever%null%1,              Sean T. H.%Liu%null%1,              Charlotte%Cunningham-Rundles%null%1,              Philip L.%Felgner%null%1,              Thomas%Moran%null%1,              Adolfo%García-Sastre%null%1,              Daniel%Caplivski%null%1,              Allen C.%Cheng%null%1,              Katherine%Kedzierska%null%1,              Olli%Vapalahti%null%1,              Jussi M.%Hepojoki%null%1,              Viviana%Simon%null%1,              Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                       Huangqi%Zhang%NULL%2,                       Huangqi%Zhang%NULL%0,                       Jicheng%Xie%NULL%2,                       Jicheng%Xie%NULL%0,                       Minjie%Lin%NULL%2,                       Minjie%Lin%NULL%0,                       Lingjun%Ying%NULL%2,                       Lingjun%Ying%NULL%0,                       Peipei%Pang%NULL%2,                       Peipei%Pang%NULL%0,                       Wenbin%Ji%1224190004@qq.com%2,                       Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                        Zhenyu%Pan%NULL%2,                        Yunbao%Pan%NULL%2,                        Qiaoling%Deng%NULL%2,                        Liangjun%Chen%NULL%2,                        Jin%Li%NULL%2,                        Yirong%Li%NULL%4,                        Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                         W.% Jiang%null%1,                         Q.% He%null%1,                         C.% Wang%null%2,                         B.% Wang%null%2,                         P.% Zhou%null%1,                         N.% Dong%null%1,                         Q. % Tong%null%1,      Y.%Wang%null%1,      W.% Jiang%null%1,      Q.% He%null%1,      C.% Wang%null%2,      B.% Wang%null%2,      P.% Zhou%null%2,      N.% Dong%null%1,      Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                        Pingzheng%Mo%NULL%2,                        Yu%Xiao%NULL%2,                        Oiu%Zhao%NULL%1,                        Yongxi%Zhang%NULL%4,                        Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                        Owen Tak-Yin%Tsang%NULL%1,                        Wai-Shing%Leung%NULL%1,                        Anthony Raymond%Tam%NULL%1,                        Tak-Chiu%Wu%NULL%1,                        David Christopher%Lung%NULL%1,                        Cyril Chik-Yan%Yip%NULL%1,                        Jian-Piao%Cai%NULL%2,                        Jacky Man-Chun%Chan%NULL%1,                        Thomas Shiu-Hong%Chik%NULL%1,                        Daphne Pui-Ling%Lau%NULL%1,                        Chris Yau-Chung%Choi%NULL%1,                        Lin-Lei%Chen%NULL%1,                        Wan-Mui%Chan%NULL%1,                        Kwok-Hung%Chan%NULL%2,                        Jonathan Daniel%Ip%NULL%1,                        Anthony Chin-Ki%Ng%NULL%1,                        Rosana Wing-Shan%Poon%NULL%1,                        Cui-Ting%Luo%NULL%1,                        Vincent Chi-Chung%Cheng%NULL%1,                        Jasper Fuk-Woo%Chan%NULL%3,                        Ivan Fan-Ngai%Hung%NULL%2,                        Zhiwei%Chen%NULL%1,                        Honglin%Chen%NULL%1,                        Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,               Qi%Zhang%null%1,               Jiwan%Ge%null%1,               Ruoke%Wang%null%1,               Jing%Sun%null%1,               Xiangyang%Ge%null%1,               Jiazhen%Yu%null%1,               Sisi%Shan%null%1,               Bing%Zhou%null%1,               Shuo%Song%null%1,               Xian%Tang%null%1,               Jinfang%Yu%null%1,               Jun%Lan%null%1,               Jing%Yuan%null%1,               Haiyan%Wang%null%1,               Juanjuan%Zhao%null%1,               Shuye%Zhang%null%1,               Youchun%Wang%null%1,               Xuanling%Shi%null%1,               Lei%Liu%null%1,               Jincun%Zhao%null%1,               Xinquan%Wang%null%1,               Zheng%Zhang%null%1,               Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                        Guillaume%Carissimo%NULL%1,                        Bei%Wang%NULL%2,                        Bei%Wang%NULL%0,                        Siti Naqiah%Amrun%NULL%1,                        Cheryl Yi-Pin%Lee%NULL%1,                        Rhonda Sin-Ling%Chee%NULL%1,                        Siew-Wai%Fong%NULL%1,                        Nicholas Kim-Wah%Yeo%NULL%1,                        Wen-Hsin%Lee%NULL%1,                        Anthony%Torres-Ruesta%NULL%1,                        Yee-Sin%Leo%NULL%2,                        Yee-Sin%Leo%NULL%0,                        Mark I-Cheng%Chen%NULL%1,                        Seow-Yen%Tan%NULL%1,                        Louis Yi Ann%Chai%NULL%1,                        Shirin%Kalimuddin%NULL%1,                        Shirley Seah Gek%Kheng%NULL%1,                        Siew-Yee%Thien%NULL%1,                        Barnaby Edward%Young%NULL%2,                        David C.%Lye%NULL%1,                        Brendon John%Hanson%NULL%1,                        Cheng-I%Wang%NULL%1,                        Laurent%Renia%NULL%1,                        Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                        Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                        Rong-Hui%Du%NULL%1,                        Bei%Li%NULL%1,                        Xiao-Shuang%Zheng%NULL%1,                        Xing-Lou%Yang%NULL%1,                        Ben%Hu%NULL%1,                        Yan-Yi%Wang%NULL%1,                        Geng-Fu%Xiao%NULL%1,                        Bing%Yan%NULL%1,                        Zheng-Li%Shi%NULL%1,                        Peng%Zhou%NULL%2,                        Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,               Daniel%Stadlbauer%null%1,               Shirin%Strohmeier%null%1,               Thi H. O.%Nguyen%null%1,               Veronika%Chromikova%null%1,               Meagan%McMahon%null%1,               Kaijun%Jiang%null%1,               Guha Asthagiri%Arunkumar%null%1,               Denise%Jurczyszak%null%1,               Jose%Polanco%null%1,               Maria%Bermudez-Gonzalez%null%1,               Giulio%Kleiner%null%1,               Teresa%Aydillo%null%1,               Lisa%Miorin%null%1,               Daniel S.%Fierer%null%1,               Luz Amarilis%Lugo%null%1,               Erna Milunka%Kojic%null%1,               Jonathan%Stoever%null%1,               Sean T. H.%Liu%null%1,               Charlotte%Cunningham-Rundles%null%1,               Philip L.%Felgner%null%1,               Thomas%Moran%null%1,               Adolfo%García-Sastre%null%1,               Daniel%Caplivski%null%1,               Allen C.%Cheng%null%1,               Katherine%Kedzierska%null%1,               Olli%Vapalahti%null%1,               Jussi M.%Hepojoki%null%1,               Viviana%Simon%null%1,               Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                        Huangqi%Zhang%NULL%2,                        Huangqi%Zhang%NULL%0,                        Jicheng%Xie%NULL%2,                        Jicheng%Xie%NULL%0,                        Minjie%Lin%NULL%2,                        Minjie%Lin%NULL%0,                        Lingjun%Ying%NULL%2,                        Lingjun%Ying%NULL%0,                        Peipei%Pang%NULL%2,                        Peipei%Pang%NULL%0,                        Wenbin%Ji%1224190004@qq.com%2,                        Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                         Zhenyu%Pan%NULL%2,                         Yunbao%Pan%NULL%2,                         Qiaoling%Deng%NULL%2,                         Liangjun%Chen%NULL%2,                         Jin%Li%NULL%2,                         Yirong%Li%NULL%4,                         Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                          W.% Jiang%null%1,                          Q.% He%null%1,                          C.% Wang%null%2,                          B.% Wang%null%2,                          P.% Zhou%null%1,                          N.% Dong%null%1,                          Q. % Tong%null%1,       Y.%Wang%null%1,       W.% Jiang%null%1,       Q.% He%null%1,       C.% Wang%null%2,       B.% Wang%null%2,       P.% Zhou%null%2,       N.% Dong%null%1,       Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                         Pingzheng%Mo%NULL%2,                         Yu%Xiao%NULL%2,                         Oiu%Zhao%NULL%1,                         Yongxi%Zhang%NULL%4,                         Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                         Owen Tak-Yin%Tsang%NULL%1,                         Wai-Shing%Leung%NULL%1,                         Anthony Raymond%Tam%NULL%1,                         Tak-Chiu%Wu%NULL%1,                         David Christopher%Lung%NULL%1,                         Cyril Chik-Yan%Yip%NULL%1,                         Jian-Piao%Cai%NULL%2,                         Jacky Man-Chun%Chan%NULL%1,                         Thomas Shiu-Hong%Chik%NULL%1,                         Daphne Pui-Ling%Lau%NULL%1,                         Chris Yau-Chung%Choi%NULL%1,                         Lin-Lei%Chen%NULL%1,                         Wan-Mui%Chan%NULL%1,                         Kwok-Hung%Chan%NULL%2,                         Jonathan Daniel%Ip%NULL%1,                         Anthony Chin-Ki%Ng%NULL%1,                         Rosana Wing-Shan%Poon%NULL%1,                         Cui-Ting%Luo%NULL%1,                         Vincent Chi-Chung%Cheng%NULL%1,                         Jasper Fuk-Woo%Chan%NULL%3,                         Ivan Fan-Ngai%Hung%NULL%2,                         Zhiwei%Chen%NULL%1,                         Honglin%Chen%NULL%1,                         Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,                Qi%Zhang%null%1,                Jiwan%Ge%null%1,                Ruoke%Wang%null%1,                Jing%Sun%null%1,                Xiangyang%Ge%null%1,                Jiazhen%Yu%null%1,                Sisi%Shan%null%1,                Bing%Zhou%null%1,                Shuo%Song%null%1,                Xian%Tang%null%1,                Jinfang%Yu%null%1,                Jun%Lan%null%1,                Jing%Yuan%null%1,                Haiyan%Wang%null%1,                Juanjuan%Zhao%null%1,                Shuye%Zhang%null%1,                Youchun%Wang%null%1,                Xuanling%Shi%null%1,                Lei%Liu%null%1,                Jincun%Zhao%null%1,                Xinquan%Wang%null%1,                Zheng%Zhang%null%1,                Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                         Guillaume%Carissimo%NULL%1,                         Bei%Wang%NULL%2,                         Bei%Wang%NULL%0,                         Siti Naqiah%Amrun%NULL%1,                         Cheryl Yi-Pin%Lee%NULL%1,                         Rhonda Sin-Ling%Chee%NULL%1,                         Siew-Wai%Fong%NULL%1,                         Nicholas Kim-Wah%Yeo%NULL%1,                         Wen-Hsin%Lee%NULL%1,                         Anthony%Torres-Ruesta%NULL%1,                         Yee-Sin%Leo%NULL%2,                         Yee-Sin%Leo%NULL%0,                         Mark I-Cheng%Chen%NULL%1,                         Seow-Yen%Tan%NULL%1,                         Louis Yi Ann%Chai%NULL%1,                         Shirin%Kalimuddin%NULL%1,                         Shirley Seah Gek%Kheng%NULL%1,                         Siew-Yee%Thien%NULL%1,                         Barnaby Edward%Young%NULL%2,                         David C.%Lye%NULL%1,                         Brendon John%Hanson%NULL%1,                         Cheng-I%Wang%NULL%1,                         Laurent%Renia%NULL%1,                         Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                         Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                         Rong-Hui%Du%NULL%1,                         Bei%Li%NULL%1,                         Xiao-Shuang%Zheng%NULL%1,                         Xing-Lou%Yang%NULL%1,                         Ben%Hu%NULL%1,                         Yan-Yi%Wang%NULL%1,                         Geng-Fu%Xiao%NULL%1,                         Bing%Yan%NULL%1,                         Zheng-Li%Shi%NULL%1,                         Peng%Zhou%NULL%2,                         Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,                Daniel%Stadlbauer%null%1,                Shirin%Strohmeier%null%1,                Thi H. O.%Nguyen%null%1,                Veronika%Chromikova%null%1,                Meagan%McMahon%null%1,                Kaijun%Jiang%null%1,                Guha Asthagiri%Arunkumar%null%1,                Denise%Jurczyszak%null%1,                Jose%Polanco%null%1,                Maria%Bermudez-Gonzalez%null%1,                Giulio%Kleiner%null%1,                Teresa%Aydillo%null%1,                Lisa%Miorin%null%1,                Daniel S.%Fierer%null%1,                Luz Amarilis%Lugo%null%1,                Erna Milunka%Kojic%null%1,                Jonathan%Stoever%null%1,                Sean T. H.%Liu%null%1,                Charlotte%Cunningham-Rundles%null%1,                Philip L.%Felgner%null%1,                Thomas%Moran%null%1,                Adolfo%García-Sastre%null%1,                Daniel%Caplivski%null%1,                Allen C.%Cheng%null%1,                Katherine%Kedzierska%null%1,                Olli%Vapalahti%null%1,                Jussi M.%Hepojoki%null%1,                Viviana%Simon%null%1,                Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                         Huangqi%Zhang%NULL%2,                         Huangqi%Zhang%NULL%0,                         Jicheng%Xie%NULL%2,                         Jicheng%Xie%NULL%0,                         Minjie%Lin%NULL%2,                         Minjie%Lin%NULL%0,                         Lingjun%Ying%NULL%2,                         Lingjun%Ying%NULL%0,                         Peipei%Pang%NULL%2,                         Peipei%Pang%NULL%0,                         Wenbin%Ji%1224190004@qq.com%2,                         Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1170,6 +1308,9 @@
       <c r="I1" t="s">
         <v>77</v>
       </c>
+      <c r="J1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1185,7 +1326,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1198,6 +1339,9 @@
       </c>
       <c r="I2" t="s">
         <v>230</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -1214,7 +1358,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1227,6 +1371,9 @@
       </c>
       <c r="I3" t="s">
         <v>232</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1243,7 +1390,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1256,6 +1403,9 @@
       </c>
       <c r="I4" t="s">
         <v>234</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1272,7 +1422,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1285,6 +1435,9 @@
       </c>
       <c r="I5" t="s">
         <v>230</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1301,7 +1454,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1314,6 +1467,9 @@
       </c>
       <c r="I6" t="s">
         <v>237</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1330,7 +1486,7 @@
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1343,6 +1499,9 @@
       </c>
       <c r="I7" t="s">
         <v>239</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1359,7 +1518,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1372,6 +1531,9 @@
       </c>
       <c r="I8" t="s">
         <v>234</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1388,7 +1550,7 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1401,6 +1563,9 @@
       </c>
       <c r="I9" t="s">
         <v>237</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1417,7 +1582,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1430,6 +1595,9 @@
       </c>
       <c r="I10" t="s">
         <v>234</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/22.xlsx
+++ b/Covid_19_Dataset_and_References/References/22.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="316">
   <si>
     <t>Doi</t>
   </si>
@@ -981,6 +981,60 @@
   </si>
   <si>
     <t>[Yicheng%Fang%NULL%3,                         Huangqi%Zhang%NULL%2,                         Huangqi%Zhang%NULL%0,                         Jicheng%Xie%NULL%2,                         Jicheng%Xie%NULL%0,                         Minjie%Lin%NULL%2,                         Minjie%Lin%NULL%0,                         Lingjun%Ying%NULL%2,                         Lingjun%Ying%NULL%0,                         Peipei%Pang%NULL%2,                         Peipei%Pang%NULL%0,                         Wenbin%Ji%1224190004@qq.com%2,                         Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                          Zhenyu%Pan%NULL%2,                          Yunbao%Pan%NULL%2,                          Qiaoling%Deng%NULL%2,                          Liangjun%Chen%NULL%2,                          Jin%Li%NULL%2,                          Yirong%Li%NULL%4,                          Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                           W.% Jiang%null%1,                           Q.% He%null%1,                           C.% Wang%null%2,                           B.% Wang%null%2,                           P.% Zhou%null%1,                           N.% Dong%null%1,                           Q. % Tong%null%1,        Y.%Wang%null%1,        W.% Jiang%null%1,        Q.% He%null%1,        C.% Wang%null%2,        B.% Wang%null%2,        P.% Zhou%null%2,        N.% Dong%null%1,        Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                          Pingzheng%Mo%NULL%2,                          Yu%Xiao%NULL%2,                          Oiu%Zhao%NULL%1,                          Yongxi%Zhang%NULL%4,                          Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                          Owen Tak-Yin%Tsang%NULL%1,                          Wai-Shing%Leung%NULL%1,                          Anthony Raymond%Tam%NULL%1,                          Tak-Chiu%Wu%NULL%1,                          David Christopher%Lung%NULL%1,                          Cyril Chik-Yan%Yip%NULL%1,                          Jian-Piao%Cai%NULL%2,                          Jacky Man-Chun%Chan%NULL%1,                          Thomas Shiu-Hong%Chik%NULL%1,                          Daphne Pui-Ling%Lau%NULL%1,                          Chris Yau-Chung%Choi%NULL%1,                          Lin-Lei%Chen%NULL%1,                          Wan-Mui%Chan%NULL%1,                          Kwok-Hung%Chan%NULL%2,                          Jonathan Daniel%Ip%NULL%1,                          Anthony Chin-Ki%Ng%NULL%1,                          Rosana Wing-Shan%Poon%NULL%1,                          Cui-Ting%Luo%NULL%1,                          Vincent Chi-Chung%Cheng%NULL%1,                          Jasper Fuk-Woo%Chan%NULL%3,                          Ivan Fan-Ngai%Hung%NULL%2,                          Zhiwei%Chen%NULL%1,                          Honglin%Chen%NULL%1,                          Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,                 Qi%Zhang%null%1,                 Jiwan%Ge%null%1,                 Ruoke%Wang%null%1,                 Jing%Sun%null%1,                 Xiangyang%Ge%null%1,                 Jiazhen%Yu%null%1,                 Sisi%Shan%null%1,                 Bing%Zhou%null%1,                 Shuo%Song%null%1,                 Xian%Tang%null%1,                 Jinfang%Yu%null%1,                 Jun%Lan%null%1,                 Jing%Yuan%null%1,                 Haiyan%Wang%null%1,                 Juanjuan%Zhao%null%1,                 Shuye%Zhang%null%1,                 Youchun%Wang%null%1,                 Xuanling%Shi%null%1,                 Lei%Liu%null%1,                 Jincun%Zhao%null%1,                 Xinquan%Wang%null%1,                 Zheng%Zhang%null%1,                 Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                          Guillaume%Carissimo%NULL%1,                          Bei%Wang%NULL%2,                          Bei%Wang%NULL%0,                          Siti Naqiah%Amrun%NULL%1,                          Cheryl Yi-Pin%Lee%NULL%1,                          Rhonda Sin-Ling%Chee%NULL%1,                          Siew-Wai%Fong%NULL%1,                          Nicholas Kim-Wah%Yeo%NULL%1,                          Wen-Hsin%Lee%NULL%1,                          Anthony%Torres-Ruesta%NULL%1,                          Yee-Sin%Leo%NULL%2,                          Yee-Sin%Leo%NULL%0,                          Mark I-Cheng%Chen%NULL%1,                          Seow-Yen%Tan%NULL%1,                          Louis Yi Ann%Chai%NULL%1,                          Shirin%Kalimuddin%NULL%1,                          Shirley Seah Gek%Kheng%NULL%1,                          Siew-Yee%Thien%NULL%1,                          Barnaby Edward%Young%NULL%2,                          David C.%Lye%NULL%1,                          Brendon John%Hanson%NULL%1,                          Cheng-I%Wang%NULL%1,                          Laurent%Renia%NULL%1,                          Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                          Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                          Rong-Hui%Du%NULL%1,                          Bei%Li%NULL%1,                          Xiao-Shuang%Zheng%NULL%1,                          Xing-Lou%Yang%NULL%1,                          Ben%Hu%NULL%1,                          Yan-Yi%Wang%NULL%1,                          Geng-Fu%Xiao%NULL%1,                          Bing%Yan%NULL%1,                          Zheng-Li%Shi%NULL%1,                          Peng%Zhou%NULL%2,                          Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,                 Daniel%Stadlbauer%null%1,                 Shirin%Strohmeier%null%1,                 Thi H. O.%Nguyen%null%1,                 Veronika%Chromikova%null%1,                 Meagan%McMahon%null%1,                 Kaijun%Jiang%null%1,                 Guha Asthagiri%Arunkumar%null%1,                 Denise%Jurczyszak%null%1,                 Jose%Polanco%null%1,                 Maria%Bermudez-Gonzalez%null%1,                 Giulio%Kleiner%null%1,                 Teresa%Aydillo%null%1,                 Lisa%Miorin%null%1,                 Daniel S.%Fierer%null%1,                 Luz Amarilis%Lugo%null%1,                 Erna Milunka%Kojic%null%1,                 Jonathan%Stoever%null%1,                 Sean T. H.%Liu%null%1,                 Charlotte%Cunningham-Rundles%null%1,                 Philip L.%Felgner%null%1,                 Thomas%Moran%null%1,                 Adolfo%García-Sastre%null%1,                 Daniel%Caplivski%null%1,                 Allen C.%Cheng%null%1,                 Katherine%Kedzierska%null%1,                 Olli%Vapalahti%null%1,                 Jussi M.%Hepojoki%null%1,                 Viviana%Simon%null%1,                 Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                          Huangqi%Zhang%NULL%2,                          Huangqi%Zhang%NULL%0,                          Jicheng%Xie%NULL%2,                          Jicheng%Xie%NULL%0,                          Minjie%Lin%NULL%2,                          Minjie%Lin%NULL%0,                          Lingjun%Ying%NULL%2,                          Lingjun%Ying%NULL%0,                          Peipei%Pang%NULL%2,                          Peipei%Pang%NULL%0,                          Wenbin%Ji%1224190004@qq.com%2,                          Wenbin%Ji%1224190004@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%2,                           Zhenyu%Pan%NULL%2,                           Yunbao%Pan%NULL%2,                           Qiaoling%Deng%NULL%2,                           Liangjun%Chen%NULL%2,                           Jin%Li%NULL%2,                           Yirong%Li%NULL%4,                           Xinghuan%Wang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Y.%Wang%null%1,                            W.% Jiang%null%1,                            Q.% He%null%1,                            C.% Wang%null%2,                            B.% Wang%null%2,                            P.% Zhou%null%1,                            N.% Dong%null%1,                            Q. % Tong%null%1,         Y.%Wang%null%1,         W.% Jiang%null%1,         Q.% He%null%1,         C.% Wang%null%2,         B.% Wang%null%2,         P.% Zhou%null%2,         N.% Dong%null%1,         Q. % Tong%null%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Xing%NULL%1,                           Pingzheng%Mo%NULL%2,                           Yu%Xiao%NULL%2,                           Oiu%Zhao%NULL%1,                           Yongxi%Zhang%NULL%4,                           Fan%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%2,                           Owen Tak-Yin%Tsang%NULL%1,                           Wai-Shing%Leung%NULL%1,                           Anthony Raymond%Tam%NULL%1,                           Tak-Chiu%Wu%NULL%1,                           David Christopher%Lung%NULL%1,                           Cyril Chik-Yan%Yip%NULL%1,                           Jian-Piao%Cai%NULL%2,                           Jacky Man-Chun%Chan%NULL%1,                           Thomas Shiu-Hong%Chik%NULL%1,                           Daphne Pui-Ling%Lau%NULL%1,                           Chris Yau-Chung%Choi%NULL%1,                           Lin-Lei%Chen%NULL%1,                           Wan-Mui%Chan%NULL%1,                           Kwok-Hung%Chan%NULL%2,                           Jonathan Daniel%Ip%NULL%1,                           Anthony Chin-Ki%Ng%NULL%1,                           Rosana Wing-Shan%Poon%NULL%1,                           Cui-Ting%Luo%NULL%1,                           Vincent Chi-Chung%Cheng%NULL%1,                           Jasper Fuk-Woo%Chan%NULL%3,                           Ivan Fan-Ngai%Hung%NULL%2,                           Zhiwei%Chen%NULL%1,                           Honglin%Chen%NULL%1,                           Kwok-Yung%Yuen%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Bin%Ju%null%1,                  Qi%Zhang%null%1,                  Jiwan%Ge%null%1,                  Ruoke%Wang%null%1,                  Jing%Sun%null%1,                  Xiangyang%Ge%null%1,                  Jiazhen%Yu%null%1,                  Sisi%Shan%null%1,                  Bing%Zhou%null%1,                  Shuo%Song%null%1,                  Xian%Tang%null%1,                  Jinfang%Yu%null%1,                  Jun%Lan%null%1,                  Jing%Yuan%null%1,                  Haiyan%Wang%null%1,                  Juanjuan%Zhao%null%1,                  Shuye%Zhang%null%1,                  Youchun%Wang%null%1,                  Xuanling%Shi%null%1,                  Lei%Liu%null%1,                  Jincun%Zhao%null%1,                  Xinquan%Wang%null%1,                  Zheng%Zhang%null%1,                  Linqi%Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Chek Meng%Poh%NULL%1,                           Guillaume%Carissimo%NULL%1,                           Bei%Wang%NULL%2,                           Bei%Wang%NULL%0,                           Siti Naqiah%Amrun%NULL%1,                           Cheryl Yi-Pin%Lee%NULL%1,                           Rhonda Sin-Ling%Chee%NULL%1,                           Siew-Wai%Fong%NULL%1,                           Nicholas Kim-Wah%Yeo%NULL%1,                           Wen-Hsin%Lee%NULL%1,                           Anthony%Torres-Ruesta%NULL%1,                           Yee-Sin%Leo%NULL%2,                           Yee-Sin%Leo%NULL%0,                           Mark I-Cheng%Chen%NULL%1,                           Seow-Yen%Tan%NULL%1,                           Louis Yi Ann%Chai%NULL%1,                           Shirin%Kalimuddin%NULL%1,                           Shirley Seah Gek%Kheng%NULL%1,                           Siew-Yee%Thien%NULL%1,                           Barnaby Edward%Young%NULL%2,                           David C.%Lye%NULL%1,                           Brendon John%Hanson%NULL%1,                           Cheng-I%Wang%NULL%1,                           Laurent%Renia%NULL%1,                           Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%2,                           Lisa F. P.%Ng%lisa_ng@immunol.a-star.edu.sg%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhang%NULL%1,                           Rong-Hui%Du%NULL%1,                           Bei%Li%NULL%1,                           Xiao-Shuang%Zheng%NULL%1,                           Xing-Lou%Yang%NULL%1,                           Ben%Hu%NULL%1,                           Yan-Yi%Wang%NULL%1,                           Geng-Fu%Xiao%NULL%1,                           Bing%Yan%NULL%1,                           Zheng-Li%Shi%NULL%1,                           Peng%Zhou%NULL%2,                           Peng%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Fatima%Amanat%null%1,                  Daniel%Stadlbauer%null%1,                  Shirin%Strohmeier%null%1,                  Thi H. O.%Nguyen%null%1,                  Veronika%Chromikova%null%1,                  Meagan%McMahon%null%1,                  Kaijun%Jiang%null%1,                  Guha Asthagiri%Arunkumar%null%1,                  Denise%Jurczyszak%null%1,                  Jose%Polanco%null%1,                  Maria%Bermudez-Gonzalez%null%1,                  Giulio%Kleiner%null%1,                  Teresa%Aydillo%null%1,                  Lisa%Miorin%null%1,                  Daniel S.%Fierer%null%1,                  Luz Amarilis%Lugo%null%1,                  Erna Milunka%Kojic%null%1,                  Jonathan%Stoever%null%1,                  Sean T. H.%Liu%null%1,                  Charlotte%Cunningham-Rundles%null%1,                  Philip L.%Felgner%null%1,                  Thomas%Moran%null%1,                  Adolfo%García-Sastre%null%1,                  Daniel%Caplivski%null%1,                  Allen C.%Cheng%null%1,                  Katherine%Kedzierska%null%1,                  Olli%Vapalahti%null%1,                  Jussi M.%Hepojoki%null%1,                  Viviana%Simon%null%1,                  Florian%Krammer%null%1]</t>
+  </si>
+  <si>
+    <t>[Yicheng%Fang%NULL%3,                           Huangqi%Zhang%NULL%2,                           Huangqi%Zhang%NULL%0,                           Jicheng%Xie%NULL%2,                           Jicheng%Xie%NULL%0,                           Minjie%Lin%NULL%2,                           Minjie%Lin%NULL%0,                           Lingjun%Ying%NULL%2,                           Lingjun%Ying%NULL%0,                           Peipei%Pang%NULL%2,                           Peipei%Pang%NULL%0,                           Wenbin%Ji%1224190004@qq.com%2,                           Wenbin%Ji%1224190004@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1380,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1358,7 +1412,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1390,7 +1444,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1422,7 +1476,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1454,7 +1508,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1486,7 +1540,7 @@
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1518,7 +1572,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1550,7 +1604,7 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1582,7 +1636,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
